--- a/classificacao_final_Chile.xlsx
+++ b/classificacao_final_Chile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E639"/>
+  <dimension ref="A1:E648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,11 +589,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Antônia Arielly Jacinto Da Silva</t>
+          <t>Luana Beatriz Dos Santos Nascimento</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6610014780</v>
+        <v>6610013832</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -610,11 +610,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Luana Beatriz Dos Santos Nascimento</t>
+          <t>Íris Maria Barreto De Souza</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6610013832</v>
+        <v>6610008238</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -631,11 +631,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Íris Maria Barreto De Souza</t>
+          <t>Ana Maria Silva Da Mata</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6610008238</v>
+        <v>6610015421</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -652,11 +652,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ana Maria Silva Da Mata</t>
+          <t>Carlos Eduardo Moreira Da Silva</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6610015421</v>
+        <v>6610011504</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -673,11 +673,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Moreira Da Silva</t>
+          <t>Jean Pablo Pereira Rodrigues</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6610011504</v>
+        <v>6610007589</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -694,11 +694,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jean Pablo Pereira Rodrigues</t>
+          <t>Joselania Pereira Da Silva</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6610007589</v>
+        <v>6610012366</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -715,11 +715,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joselania Pereira Da Silva</t>
+          <t>Gleicianny Vithoria Da Silva</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6610012366</v>
+        <v>6610006487</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -736,11 +736,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gleicianny Vithoria Da Silva</t>
+          <t>Kaylanne Lima Dos Santos  (Kaylanne)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6610006487</v>
+        <v>6610005490</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -757,11 +757,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kaylanne Lima Dos Santos  (Kaylanne)</t>
+          <t>Lays Santiago Firmino</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6610005490</v>
+        <v>6610006318</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -778,11 +778,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lays Santiago Firmino</t>
+          <t>Aislan Oliveira Dos Santos</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6610006318</v>
+        <v>6610003402</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -799,11 +799,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aislan Oliveira Dos Santos</t>
+          <t>Maria Cecilia Gomes Bezerra</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6610003402</v>
+        <v>6610011603</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -820,11 +820,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Maria Cecilia Gomes Bezerra</t>
+          <t>Luiz Otavio Fernandes Ribeiro</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6610011603</v>
+        <v>6610017555</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -841,11 +841,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Luiz Otavio Fernandes Ribeiro</t>
+          <t>Wanny Kathyelly Pereira Da Silva</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6610017555</v>
+        <v>6610002921</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wanny Kathyelly Pereira Da Silva</t>
+          <t>Bianca Do Nascimento Rocha</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6610002921</v>
+        <v>6610000170</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -883,11 +883,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bianca Do Nascimento Rocha</t>
+          <t>Marcus Vinícius De França Santos</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6610000170</v>
+        <v>6610000636</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -904,11 +904,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Marcus Vinícius De França Santos</t>
+          <t>Maria Beatriz De Souza Chagas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6610000636</v>
+        <v>6610012852</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -925,11 +925,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Maria Beatriz De Souza Chagas</t>
+          <t>Jéssika Cibelle Silva Cesário</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6610012852</v>
+        <v>6610003308</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -946,11 +946,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jéssika Cibelle Silva Cesário</t>
+          <t>Willams Claudino Da Silva</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6610003308</v>
+        <v>6610000769</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -967,11 +967,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Willams Claudino Da Silva</t>
+          <t>Maria Clara Cardoso Da Silva</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6610000769</v>
+        <v>6610005790</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -988,11 +988,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Maria Clara Cardoso Da Silva</t>
+          <t>Tainá Marinalva Silva De Santana  (Tainá )</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6610005790</v>
+        <v>6610003950</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1009,11 +1009,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tainá Marinalva Silva De Santana  (Tainá )</t>
+          <t>Tainá Silva Costa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6610003950</v>
+        <v>6610009316</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1030,11 +1030,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tainá Silva Costa</t>
+          <t>Jailson Da Silva Lima</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6610009316</v>
+        <v>6610014635</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1051,11 +1051,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jailson Da Silva Lima</t>
+          <t>Maria Jheniffer Karollainy De Lima</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6610014635</v>
+        <v>6610002635</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1072,11 +1072,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Maria Jheniffer Karollainy De Lima</t>
+          <t>Raianne Evillyn Barros Rocha</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6610002635</v>
+        <v>6610012279</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1093,11 +1093,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Raianne Evillyn Barros Rocha</t>
+          <t>Tainá Margarida Da Silva Batista</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6610012279</v>
+        <v>6610001364</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1114,11 +1114,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tainá Margarida Da Silva Batista</t>
+          <t>Ludmyla Monteiro Barreto</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6610001364</v>
+        <v>6610003485</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1135,11 +1135,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ludmyla Monteiro Barreto</t>
+          <t>Jonas Joaquim Vicente Oliveira</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6610003485</v>
+        <v>6610019933</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1156,11 +1156,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jonas Joaquim Vicente Oliveira</t>
+          <t>Maria Eduarda De Araujo Barbosa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6610019933</v>
+        <v>6610017059</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1177,11 +1177,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Maria Eduarda De Araujo Barbosa</t>
+          <t>Thaylla Khetely Da Silva Dos Santos</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6610017059</v>
+        <v>6610005066</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1198,11 +1198,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Thaylla Khetely Da Silva Dos Santos</t>
+          <t>Bruno Carrilho Do Nascimento</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6610005066</v>
+        <v>6610004764</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1219,11 +1219,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bruno Carrilho Do Nascimento</t>
+          <t>Luiz Fernando De Macedo Coelho</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6610004764</v>
+        <v>6610014916</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1240,11 +1240,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Luiz Fernando De Macedo Coelho</t>
+          <t>Evellyn Vitoria Leite Costa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6610014916</v>
+        <v>6610015972</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1261,11 +1261,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Evellyn Vitoria Leite Costa</t>
+          <t>Keolany Darla Da Silva Narciso</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6610015972</v>
+        <v>6610003165</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1282,11 +1282,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Keolany Darla Da Silva Narciso</t>
+          <t>Antônia Arielly Jacinto Da Silva</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6610003165</v>
+        <v>6610014780</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1681,11 +1681,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Eloísa Alves De Lucena</t>
+          <t>Micaelly Maria Leite De Oliveira</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6610008566</v>
+        <v>6610000172</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1702,11 +1702,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Maria Clara De Oliveira Audejan</t>
+          <t>Eloísa Alves De Lucena</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6610001109</v>
+        <v>6610008566</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1723,11 +1723,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Luís Vitor Cruz Barboza</t>
+          <t>Maria Clara De Oliveira Audejan</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6610013457</v>
+        <v>6610001109</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1744,11 +1744,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ana Maryna Cabral Silva</t>
+          <t>Luís Vitor Cruz Barboza</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6610014837</v>
+        <v>6610013457</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1765,11 +1765,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lucas Duarte De Lima</t>
+          <t>Ana Maryna Cabral Silva</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6610000451</v>
+        <v>6610014837</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1786,11 +1786,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Jhenyffer Helena Vieira De Melo</t>
+          <t>Lucas Duarte De Lima</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>6610001347</v>
+        <v>6610000451</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1807,11 +1807,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Eliza Maria Barbosa De Oliveira</t>
+          <t>Jhenyffer Helena Vieira De Melo</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6610012148</v>
+        <v>6610001347</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1828,11 +1828,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Weslley Da Silva Barbosa</t>
+          <t>Eliza Maria Barbosa De Oliveira</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6610001248</v>
+        <v>6610012148</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1849,11 +1849,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Nicolly Melina Santos Andrade</t>
+          <t>Weslley Da Silva Barbosa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6610016870</v>
+        <v>6610001248</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1870,11 +1870,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rebeca Larissa Camargo</t>
+          <t>Nicolly Melina Santos Andrade</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6610008490</v>
+        <v>6610016870</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1891,11 +1891,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Karla Beatriz Correia Carneiro Resende</t>
+          <t>Rebeca Larissa Camargo</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6610014927</v>
+        <v>6610008490</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1912,11 +1912,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Rebeca Rosa Alencar Patricio</t>
+          <t>Karla Beatriz Correia Carneiro Resende</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6610020838</v>
+        <v>6610014927</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1933,11 +1933,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Maria Eloisa Ferreira Silva</t>
+          <t>Rebeca Rosa Alencar Patricio</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6610012632</v>
+        <v>6610020838</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1954,11 +1954,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>André Mauricio Alves De Barros</t>
+          <t>Maria Eloisa Ferreira Silva</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6610008171</v>
+        <v>6610012632</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1975,11 +1975,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ana Kaline Rodrigues Costa</t>
+          <t>André Mauricio Alves De Barros</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6610003461</v>
+        <v>6610008171</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74" t="n">
         <v>73</v>
@@ -1996,11 +1996,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Laura Catharinne De Medeiros Ferreira</t>
+          <t>Maria Izabelle Rodrigues Dos Santos</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6610013833</v>
+        <v>6610007855</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2017,11 +2017,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Clara Olindina Dos Santos Barros</t>
+          <t>Agattha Fernanda Santos Leite</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6610005427</v>
+        <v>6610000376</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2038,11 +2038,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Anna Luísa Arruda Ferreira De Lima</t>
+          <t>Ana Kaline Rodrigues Costa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6610001138</v>
+        <v>6610003461</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2059,11 +2059,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ana Júlia Gomes De Souza</t>
+          <t>Laura Catharinne De Medeiros Ferreira</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6610004661</v>
+        <v>6610013833</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2080,11 +2080,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Kaylani Da Silva Alexandre</t>
+          <t>Clara Olindina Dos Santos Barros</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6610015113</v>
+        <v>6610005427</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2101,11 +2101,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sophia Vitória Pereira Paiva</t>
+          <t>Anna Luísa Arruda Ferreira De Lima</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>6610020763</v>
+        <v>6610001138</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2122,11 +2122,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Natalia Da Silva Fernandes</t>
+          <t>Ana Júlia Gomes De Souza</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6610015611</v>
+        <v>6610004661</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2143,11 +2143,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Letícia Maria Bezerra De Lima</t>
+          <t>Kaylani Da Silva Alexandre</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6610009253</v>
+        <v>6610015113</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2164,11 +2164,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kauane Stéphanie Nascimento Silva</t>
+          <t>Sophia Vitória Pereira Paiva</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6610000261</v>
+        <v>6610020763</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2185,11 +2185,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ana Luiza Maciel De Melo</t>
+          <t>Natalia Da Silva Fernandes</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6610005693</v>
+        <v>6610015611</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2206,11 +2206,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Daniel Augusto Barbosa Maciel</t>
+          <t>Letícia Maria Bezerra De Lima</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>6610013628</v>
+        <v>6610009253</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2227,11 +2227,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Matheus Da Silva Oliveira</t>
+          <t>Kauane Stéphanie Nascimento Silva</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>6610005837</v>
+        <v>6610000261</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2248,11 +2248,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bruna Lorraynne Nascimento Dos Santos</t>
+          <t>Ana Luiza Maciel De Melo</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6610011245</v>
+        <v>6610005693</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2269,11 +2269,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jeovana Batista Dos Santos</t>
+          <t>Daniel Augusto Barbosa Maciel</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6610003738</v>
+        <v>6610013628</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2290,11 +2290,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Isabella Lays Rodrigues Pereira</t>
+          <t>Matheus Da Silva Oliveira</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6610005475</v>
+        <v>6610005837</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2311,11 +2311,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ennyle Roberta Da Silva Campelo</t>
+          <t>Bruna Lorraynne Nascimento Dos Santos</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6610000190</v>
+        <v>6610011245</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2332,11 +2332,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>José Wellington Da Silva</t>
+          <t>Jeovana Batista Dos Santos</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6610014980</v>
+        <v>6610003738</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2353,11 +2353,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Vitor Daniel Goncalves De Sousa</t>
+          <t>Isabella Lays Rodrigues Pereira</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6610010322</v>
+        <v>6610005475</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2374,11 +2374,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Iraneide Fernanda Neves Rufino</t>
+          <t>Ennyle Roberta Da Silva Campelo</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>6610016243</v>
+        <v>6610000190</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2395,11 +2395,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Walesca Yasmim Angelim Ferreira De Lima</t>
+          <t>José Wellington Da Silva</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>6610010537</v>
+        <v>6610014980</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2416,11 +2416,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sarah Emanuely Correia De  Souza</t>
+          <t>Vitor Daniel Goncalves De Sousa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>6610019618</v>
+        <v>6610010322</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2437,11 +2437,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Antônio Sérgio Barboza Da Silva</t>
+          <t>Iraneide Fernanda Neves Rufino</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6610012451</v>
+        <v>6610016243</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2458,11 +2458,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>José Rodolfo Da Silva</t>
+          <t>Walesca Yasmim Angelim Ferreira De Lima</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6610004568</v>
+        <v>6610010537</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2479,11 +2479,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Gabriel Agaci Da Rocha Cordeiro Alves</t>
+          <t>Sarah Emanuely Correia De  Souza</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>6610000657</v>
+        <v>6610019618</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2500,11 +2500,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Isadora Henrique Lopes</t>
+          <t>Antônio Sérgio Barboza Da Silva</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6610002682</v>
+        <v>6610012451</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2521,11 +2521,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Riquelbe Soares Dos Santos</t>
+          <t>José Rodolfo Da Silva</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6610019129</v>
+        <v>6610004568</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2542,11 +2542,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sabrina Rayane Dos Santos</t>
+          <t>Gabriel Agaci Da Rocha Cordeiro Alves</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6610001693</v>
+        <v>6610000657</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2563,11 +2563,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Keyla Mayane Da Silva Pereira</t>
+          <t>Isadora Henrique Lopes</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6610005585</v>
+        <v>6610002682</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2584,11 +2584,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Marcos Antonio De Souza Santos</t>
+          <t>Riquelbe Soares Dos Santos</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6610015020</v>
+        <v>6610019129</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2605,11 +2605,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Júlia Gonçalves Cabral</t>
+          <t>Sabrina Rayane Dos Santos</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>6610018974</v>
+        <v>6610001693</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2626,11 +2626,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Maria Eduarda Da Silva Santos</t>
+          <t>Keyla Mayane Da Silva Pereira</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6610009298</v>
+        <v>6610005585</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2647,11 +2647,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Estefane Ramos Cantil</t>
+          <t>Marcos Antonio De Souza Santos</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6610007644</v>
+        <v>6610015020</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2668,11 +2668,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Mirelle Letícia De Lima Lopes</t>
+          <t>Júlia Gonçalves Cabral</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>6610007824</v>
+        <v>6610018974</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2689,11 +2689,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Luiz Fernando Guedes De Oliveira</t>
+          <t>Maria Eduarda Da Silva Santos</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>6610015834</v>
+        <v>6610009298</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2710,11 +2710,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Iane Ketilen Maria Da Silva</t>
+          <t>Estefane Ramos Cantil</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>6610008400</v>
+        <v>6610007644</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2731,11 +2731,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Noemia Gabriela Da Silva Santos</t>
+          <t>Mirelle Letícia De Lima Lopes</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6610008137</v>
+        <v>6610007824</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2752,11 +2752,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Beatriz Izabella Freire De Lima Belo</t>
+          <t>Luiz Fernando Guedes De Oliveira</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>6610000058</v>
+        <v>6610015834</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2773,11 +2773,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ayanne Letícia Nogueira De Souza Nascimento</t>
+          <t>Iane Ketilen Maria Da Silva</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>6610010555</v>
+        <v>6610008400</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2794,11 +2794,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Paula Jamyle De Souza Amorim</t>
+          <t>Noemia Gabriela Da Silva Santos</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6610014545</v>
+        <v>6610008137</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2815,11 +2815,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Maria De Fátima Alves Gonçalves</t>
+          <t>Beatriz Izabella Freire De Lima Belo</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6610007594</v>
+        <v>6610000058</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2836,11 +2836,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Maria Fernanda De Sousa Nunes</t>
+          <t>Ayanne Letícia Nogueira De Souza Nascimento</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>6610018524</v>
+        <v>6610010555</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2857,11 +2857,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jamilly Xavier Da Silva</t>
+          <t>Paula Jamyle De Souza Amorim</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6610010371</v>
+        <v>6610014545</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2878,11 +2878,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Julia De Araújo Silva</t>
+          <t>Maria De Fátima Alves Gonçalves</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>6610014527</v>
+        <v>6610007594</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2899,11 +2899,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Maria Eduarda Andrade Bezerra</t>
+          <t>Maria Fernanda De Sousa Nunes</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>6610003873</v>
+        <v>6610018524</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2920,11 +2920,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Kaio Riquelme De Lima Lopes</t>
+          <t>Jamilly Xavier Da Silva</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6610010731</v>
+        <v>6610010371</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2941,11 +2941,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Erick Tallyson José Da Silva</t>
+          <t>Julia De Araújo Silva</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>6610001175</v>
+        <v>6610014527</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2962,11 +2962,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Maria Clara Gomes De Lima</t>
+          <t>Maria Eduarda Andrade Bezerra</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6610013414</v>
+        <v>6610003873</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2983,11 +2983,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Samuel José Da Silva Júnior</t>
+          <t>Kaio Riquelme De Lima Lopes</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>6610012136</v>
+        <v>6610010731</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3004,11 +3004,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Emilly Maria Dos Santos Silva</t>
+          <t>Erick Tallyson José Da Silva</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6610009220</v>
+        <v>6610001175</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3025,11 +3025,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Stephany Emanuelly Morais Da Silva</t>
+          <t>Maria Clara Gomes De Lima</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>6610008084</v>
+        <v>6610013414</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3046,11 +3046,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Claudia Allice De Medeiros Da Silva</t>
+          <t>Samuel José Da Silva Júnior</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>6610009875</v>
+        <v>6610012136</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3067,11 +3067,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Beatriz Fernanda Paiva Guilhermino</t>
+          <t>Emilly Maria Dos Santos Silva</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6610010877</v>
+        <v>6610009220</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3088,11 +3088,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Creuza Caroline Ferreira De Albuquerque</t>
+          <t>Letícia Vitória Correia Cavalcante</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>6610005886</v>
+        <v>6610002500</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3109,11 +3109,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Stephany Lais De Oliveira Silva</t>
+          <t>Stephany Emanuelly Morais Da Silva</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>6610005062</v>
+        <v>6610008084</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3130,11 +3130,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Thalison Victor Freire Do Nascimento</t>
+          <t>Claudia Allice De Medeiros Da Silva</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>6610000235</v>
+        <v>6610009875</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3151,11 +3151,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ângela Kely Marques De Souza</t>
+          <t>Beatriz Fernanda Paiva Guilhermino</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6610018753</v>
+        <v>6610010877</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3172,11 +3172,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Gisele Kaylane Do Nascimento Torres</t>
+          <t>Creuza Caroline Ferreira De Albuquerque</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6610013607</v>
+        <v>6610005886</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3193,11 +3193,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Laila Cecilia De Andrade Cesario</t>
+          <t>Stephany Lais De Oliveira Silva</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6610009209</v>
+        <v>6610005062</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3214,11 +3214,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Dafne Da Silva Gusmão</t>
+          <t>Thalison Victor Freire Do Nascimento</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6610002264</v>
+        <v>6610000235</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3235,11 +3235,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Maria Eduarda Bezerra De Albuquerque</t>
+          <t>Ângela Kely Marques De Souza</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>6610005926</v>
+        <v>6610018753</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3256,11 +3256,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wanessa De Lima Coelho Farias</t>
+          <t>Gisele Kaylane Do Nascimento Torres</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>6610008486</v>
+        <v>6610013607</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3277,11 +3277,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Maria Clara Gonçalves Cunha</t>
+          <t>Laila Cecilia De Andrade Cesario</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>6610017857</v>
+        <v>6610009209</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3298,11 +3298,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Leticia Ferreira Aragão</t>
+          <t>Dafne Da Silva Gusmão</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>6610000135</v>
+        <v>6610002264</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3319,11 +3319,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Arielly Sabrinna Gomes Santos</t>
+          <t>Maria Eduarda Bezerra De Albuquerque</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>6610020497</v>
+        <v>6610005926</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3340,11 +3340,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Lucas Henrique Gomes De Souza</t>
+          <t>Wanessa De Lima Coelho Farias</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>6610018771</v>
+        <v>6610008486</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3361,11 +3361,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Carolina Gomes Da Silva</t>
+          <t>Maria Clara Gonçalves Cunha</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>6610001405</v>
+        <v>6610017857</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3382,11 +3382,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ingridh Carolina Silva De Souza Costa</t>
+          <t>Leticia Ferreira Aragão</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>6610020662</v>
+        <v>6610000135</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3403,11 +3403,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Maria Vitória Alves De Sobral (Vitória Alves )</t>
+          <t>Arielly Sabrinna Gomes Santos</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6610005509</v>
+        <v>6610020497</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3424,11 +3424,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>José Breno Da Silva Lima</t>
+          <t>Lucas Henrique Gomes De Souza</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>6610013591</v>
+        <v>6610018771</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3445,11 +3445,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Evelin Lucinda De Lima Lins</t>
+          <t>Carolina Gomes Da Silva</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>6610014349</v>
+        <v>6610001405</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3466,11 +3466,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ana Lívia Pereira Lopes</t>
+          <t>Ingridh Carolina Silva De Souza Costa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>6610002295</v>
+        <v>6610020662</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3487,11 +3487,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Emilly Kailany Sousa Dos Santos</t>
+          <t>Maria Vitória Alves De Sobral (Vitória Alves )</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>6610017708</v>
+        <v>6610005509</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3508,11 +3508,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Maria Alessandra Dos Santos Peixoto</t>
+          <t>José Breno Da Silva Lima</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6610014234</v>
+        <v>6610013591</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3529,11 +3529,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Yasmim Marie Fragoso Medeiros</t>
+          <t>Evelin Lucinda De Lima Lins</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>6610000155</v>
+        <v>6610014349</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3550,11 +3550,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Iasmin Jamille Da Silva</t>
+          <t>Ana Lívia Pereira Lopes</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6610006175</v>
+        <v>6610002295</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3571,11 +3571,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Maria Isabella Barbosa Aguiar</t>
+          <t>Emilly Kailany Sousa Dos Santos</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>6610002846</v>
+        <v>6610017708</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3592,11 +3592,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Cecília Dominike Ferreira Da Silva</t>
+          <t>Maria Alessandra Dos Santos Peixoto</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>6610001611</v>
+        <v>6610014234</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3613,11 +3613,11 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Amanda Maria Da Silva</t>
+          <t>Yasmim Marie Fragoso Medeiros</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6610014569</v>
+        <v>6610000155</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3634,11 +3634,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Thays Sousa Alves</t>
+          <t>Iasmin Jamille Da Silva</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6610001839</v>
+        <v>6610006175</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3655,11 +3655,11 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Maria Júlia Da Silva Pereira</t>
+          <t>Maria Isabella Barbosa Aguiar</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>6610015792</v>
+        <v>6610002846</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3676,11 +3676,11 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Carla Cassandra Guedes De Carvalho</t>
+          <t>Cecília Dominike Ferreira Da Silva</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>6610006190</v>
+        <v>6610001611</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3697,11 +3697,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>José Adriel Santos Silva</t>
+          <t>Marcos Alexandre Do Monte Mélo</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>6610006494</v>
+        <v>6610003681</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3718,11 +3718,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Mônika Nathália Vitória Silva Cavalcante</t>
+          <t>Amanda Maria Da Silva</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>6610006816</v>
+        <v>6610014569</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3739,11 +3739,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Fernando Cavalcanti Nunes</t>
+          <t>Thays Sousa Alves</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>6610014999</v>
+        <v>6610001839</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3760,11 +3760,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>José Víctor Pereira Vieira</t>
+          <t>Maria Júlia Da Silva Pereira</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>6610003060</v>
+        <v>6610015792</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3781,11 +3781,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Maria Renata Da Paixão Arcanjo</t>
+          <t>Carla Cassandra Guedes De Carvalho</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>6610020305</v>
+        <v>6610006190</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3802,11 +3802,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Giselda Cristina Nunes Da Silva</t>
+          <t>José Adriel Santos Silva</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>6610004992</v>
+        <v>6610006494</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3823,11 +3823,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Isameyre Mendes Pereira Da Silva</t>
+          <t>Mônika Nathália Vitória Silva Cavalcante</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>6610013017</v>
+        <v>6610006816</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3844,11 +3844,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Heloísa Maria Carneiro</t>
+          <t>Fernando Cavalcanti Nunes</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>6610017040</v>
+        <v>6610014999</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3865,11 +3865,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Isabeli Magalhães Gomes</t>
+          <t>José Víctor Pereira Vieira</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>6610005694</v>
+        <v>6610003060</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3886,11 +3886,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Diego De Santana Lucena</t>
+          <t>Maria Renata Da Paixão Arcanjo</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>6610002874</v>
+        <v>6610020305</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3907,11 +3907,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Vitória Rakelly Sales Bezerra</t>
+          <t>Giselda Cristina Nunes Da Silva</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>6610001181</v>
+        <v>6610004992</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3928,11 +3928,11 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Ana Vitória Gonzaga Dos Santos</t>
+          <t>Isameyre Mendes Pereira Da Silva</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>6610014309</v>
+        <v>6610013017</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3949,11 +3949,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Edson Silva Oliveira De Moraes</t>
+          <t>Heloísa Maria Carneiro</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>6610001225</v>
+        <v>6610017040</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3970,11 +3970,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Camila Da Costa Silva</t>
+          <t>Isabeli Magalhães Gomes</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>6610000921</v>
+        <v>6610005694</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3991,11 +3991,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Mikéias Jobelino De Oliveira</t>
+          <t>Diego De Santana Lucena</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>6610004369</v>
+        <v>6610002874</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4012,11 +4012,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Maria Eduarda Alves De Souza</t>
+          <t>Vitória Rakelly Sales Bezerra</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>6610001506</v>
+        <v>6610001181</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4033,11 +4033,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Maria Paula Agripino De Lima</t>
+          <t>Ana Vitória Gonzaga Dos Santos</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>6610007057</v>
+        <v>6610014309</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4054,11 +4054,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Sara Oliveira Dos Santos</t>
+          <t>Edson Silva Oliveira De Moraes</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>6610002334</v>
+        <v>6610001225</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4075,11 +4075,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Maria Cauanny Alves Da Silva</t>
+          <t>Camila Da Costa Silva</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>6610005556</v>
+        <v>6610000921</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4096,11 +4096,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Laura Carvalho De Oliveira</t>
+          <t>Mikéias Jobelino De Oliveira</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>6610013571</v>
+        <v>6610004369</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4117,11 +4117,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ana Clara Calado De Melo</t>
+          <t>Maria Eduarda Alves De Souza</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>6610006406</v>
+        <v>6610001506</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4138,11 +4138,11 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Débora Karoliny Vytória Da Silva</t>
+          <t>Maria Paula Agripino De Lima</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>6610017960</v>
+        <v>6610007057</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4159,11 +4159,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Maria Júlia Pereira De Sá Nascimento</t>
+          <t>Sara Oliveira Dos Santos</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>6610008758</v>
+        <v>6610002334</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4180,11 +4180,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Eribertty Da Silva Bezerra</t>
+          <t>Maria Cauanny Alves Da Silva</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6610011302</v>
+        <v>6610005556</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4201,11 +4201,11 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Tyago Braz Montenegro</t>
+          <t>Laura Carvalho De Oliveira</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>6610008664</v>
+        <v>6610013571</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4222,11 +4222,11 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Pedro Henrique Santos Da Silva</t>
+          <t>Ana Clara Calado De Melo</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>6610002861</v>
+        <v>6610006406</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4243,11 +4243,11 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Raquel Layla Farias Da Silva</t>
+          <t>Débora Karoliny Vytória Da Silva</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6610005474</v>
+        <v>6610017960</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4264,11 +4264,11 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Mariana De Lima Carvalho</t>
+          <t>Maria Júlia Pereira De Sá Nascimento</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6610000883</v>
+        <v>6610008758</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4285,11 +4285,11 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Otavia Oliveira Silva</t>
+          <t>Eribertty Da Silva Bezerra</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>6610018059</v>
+        <v>6610011302</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4306,11 +4306,11 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Karen Mariany Morais</t>
+          <t>Tyago Braz Montenegro</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>6610002542</v>
+        <v>6610008664</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4327,11 +4327,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Maria Dominik Lira Frazão</t>
+          <t>Pedro Henrique Santos Da Silva</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>6610009312</v>
+        <v>6610002861</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4348,11 +4348,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Julia Vitoria Dos Santos Sousa</t>
+          <t>Raquel Layla Farias Da Silva</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>6610004443</v>
+        <v>6610005474</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4369,11 +4369,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Julia Sophia Alves Da Macena</t>
+          <t>Mariana De Lima Carvalho</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>6610001558</v>
+        <v>6610000883</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4390,11 +4390,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Lara Vytória De Souza Soares</t>
+          <t>Otavia Oliveira Silva</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>6610013089</v>
+        <v>6610018059</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4411,11 +4411,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Thaillan Leite De Brito Batista</t>
+          <t>Karen Mariany Morais</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>6610001728</v>
+        <v>6610002542</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4432,11 +4432,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Ivinny Vitória Maria De Souza Brito</t>
+          <t>Maria Dominik Lira Frazão</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>6610001513</v>
+        <v>6610009312</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4453,11 +4453,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Luiz Maurício Souza Da Silva</t>
+          <t>Julia Vitoria Dos Santos Sousa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>6610005278</v>
+        <v>6610004443</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4474,11 +4474,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Antônio Luiz De Freitas Ferreira</t>
+          <t>Julia Sophia Alves Da Macena</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>6610002243</v>
+        <v>6610001558</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4495,11 +4495,11 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Davi Gabriel Alves Da Silva</t>
+          <t>Lara Vytória De Souza Soares</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>6610000926</v>
+        <v>6610013089</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4516,11 +4516,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Matheus Vinícius Moureira De Araujo</t>
+          <t>Thaillan Leite De Brito Batista</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>6610011235</v>
+        <v>6610001728</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4537,11 +4537,11 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Nicolle Monique Silva</t>
+          <t>Ivinny Vitória Maria De Souza Brito</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>6610005968</v>
+        <v>6610001513</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4558,11 +4558,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Victor Gabriel Cavalcante Tibúrcio Da Silva</t>
+          <t>Luiz Maurício Souza Da Silva</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>6610001864</v>
+        <v>6610005278</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4579,11 +4579,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Evylly Vitória Silva Feitosa</t>
+          <t>Antônio Luiz De Freitas Ferreira</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>6610002769</v>
+        <v>6610002243</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4600,11 +4600,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Maria Gabryelle Alves Da Silva</t>
+          <t>Davi Gabriel Alves Da Silva</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>6610010433</v>
+        <v>6610000926</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4621,11 +4621,11 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Ariela Júlia Rodrigues Pereira De Oliveira</t>
+          <t>Matheus Vinícius Moureira De Araujo</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>6610013005</v>
+        <v>6610011235</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4642,11 +4642,11 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Emilly Vitória Xavier Monteiro</t>
+          <t>Nicolle Monique Silva</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>6610000694</v>
+        <v>6610005968</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4663,11 +4663,11 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Matheus Figueira De Souza Rocha</t>
+          <t>Victor Gabriel Cavalcante Tibúrcio Da Silva</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>6610002281</v>
+        <v>6610001864</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4684,11 +4684,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Nathalia Keila Florencio De Castro</t>
+          <t>Evylly Vitória Silva Feitosa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>6610014403</v>
+        <v>6610002769</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4705,11 +4705,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Sabrynna Thalya Fernandes Da Silva</t>
+          <t>Maria Gabryelle Alves Da Silva</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>6610003571</v>
+        <v>6610010433</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4726,11 +4726,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Francisco Andson De Souza Siqueira</t>
+          <t>Ariela Júlia Rodrigues Pereira De Oliveira</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>6610007612</v>
+        <v>6610013005</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4747,11 +4747,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Gabriel Xavier Quirino De Souza</t>
+          <t>Emilly Vitória Xavier Monteiro</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>6610007504</v>
+        <v>6610000694</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4768,11 +4768,11 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Evelin Nayane Leite De Menezês</t>
+          <t>Matheus Figueira De Souza Rocha</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>6610000974</v>
+        <v>6610002281</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4789,11 +4789,11 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Amanda Kauane Ramos De Almeida</t>
+          <t>Nathalia Keila Florencio De Castro</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>6610018827</v>
+        <v>6610014403</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4810,11 +4810,11 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Cecília Mariana Dos Santos Soares</t>
+          <t>Sabrynna Thalya Fernandes Da Silva</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>6610001007</v>
+        <v>6610003571</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4831,11 +4831,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Iane Vívian De Carvalho Holanda</t>
+          <t>Francisco Andson De Souza Siqueira</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>6610006082</v>
+        <v>6610007612</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4852,11 +4852,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Lázaro Freitas De Siqueira</t>
+          <t>Gabriel Xavier Quirino De Souza</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>6610003914</v>
+        <v>6610007504</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4873,11 +4873,11 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Sofia Maria Monteiro Beserra</t>
+          <t>Evelin Nayane Leite De Menezês</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>6610002462</v>
+        <v>6610000974</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4894,11 +4894,11 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Alice Arruda Da Silva Oliveira</t>
+          <t>Amanda Kauane Ramos De Almeida</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>6610002809</v>
+        <v>6610018827</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4915,11 +4915,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Maria Clara Gomes Da Silva</t>
+          <t>Cecília Mariana Dos Santos Soares</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>6610013514</v>
+        <v>6610001007</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4936,11 +4936,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Mayra Talita Da Silva Rocha</t>
+          <t>Iane Vívian De Carvalho Holanda</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>6610003403</v>
+        <v>6610006082</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4957,11 +4957,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Klara Angeline Da Conceição Ernesto</t>
+          <t>Lázaro Freitas De Siqueira</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>6610005674</v>
+        <v>6610003914</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4978,11 +4978,11 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Maria Clara Silva Alves</t>
+          <t>Sofia Maria Monteiro Beserra</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>6610015606</v>
+        <v>6610002462</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4999,11 +4999,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Maysa Leal De Souza</t>
+          <t>Alice Arruda Da Silva Oliveira</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>6610017798</v>
+        <v>6610002809</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5020,11 +5020,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Paulo André Albuquerque Da Silva</t>
+          <t>Maria Clara Gomes Da Silva</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>6610004150</v>
+        <v>6610013514</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5041,11 +5041,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Rebeca Luany Trajano Dos Santos</t>
+          <t>Mayra Talita Da Silva Rocha</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>6610004296</v>
+        <v>6610003403</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5062,11 +5062,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Letícia Beatriz De Almeida Melo</t>
+          <t>Klara Angeline Da Conceição Ernesto</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>6610009664</v>
+        <v>6610005674</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5083,11 +5083,11 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Amabri Da Silva Ramos</t>
+          <t>Maria Clara Silva Alves</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>6610010841</v>
+        <v>6610015606</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5104,11 +5104,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jeniffer Jamile Nascimento Silva</t>
+          <t>Pedro Henrique Do Nascimento Romão</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>6610001247</v>
+        <v>6610005998</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5125,11 +5125,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Edson Felipe Da Silva Lima</t>
+          <t>Maysa Leal De Souza</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>6610001989</v>
+        <v>6610017798</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5146,11 +5146,11 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>José Davi Da Silva Lira</t>
+          <t>Paulo André Albuquerque Da Silva</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>6610004659</v>
+        <v>6610004150</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -5167,11 +5167,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Maria Lavínia Gomes Da Silva  (Lavínia )</t>
+          <t>Rebeca Luany Trajano Dos Santos</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>6610005869</v>
+        <v>6610004296</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -5188,11 +5188,11 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Maria Vitória Nunes Da Silva</t>
+          <t>Letícia Beatriz De Almeida Melo</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>6610013039</v>
+        <v>6610009664</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -5209,11 +5209,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Emanuelle Vitória Dos Santos Lima</t>
+          <t>Amabri Da Silva Ramos</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>6610021189</v>
+        <v>6610010841</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5230,11 +5230,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Juan Carlos De Oliveira Pereira</t>
+          <t>Jeniffer Jamile Nascimento Silva</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>6610008476</v>
+        <v>6610001247</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5251,11 +5251,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Cledson Natan Assis De Lima</t>
+          <t>Edson Felipe Da Silva Lima</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>6610019512</v>
+        <v>6610001989</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5272,11 +5272,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Julya Maryanna Barbosa Monteiro</t>
+          <t>José Davi Da Silva Lira</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>6610013905</v>
+        <v>6610004659</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5293,11 +5293,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Nayra Rakelle Gonçalves Maciel Gomes</t>
+          <t>Maria Lavínia Gomes Da Silva  (Lavínia )</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>6610005664</v>
+        <v>6610005869</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -5314,11 +5314,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Jose Pedro Da Silva Farias</t>
+          <t>Maria Vitória Nunes Da Silva</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>6610008645</v>
+        <v>6610013039</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -5335,11 +5335,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Danilo Xavier De Freitas</t>
+          <t>Emanuelle Vitória Dos Santos Lima</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>6610007470</v>
+        <v>6610021189</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -5356,11 +5356,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Mariana Magalhães Quaresma Do Nascimento</t>
+          <t>Juan Carlos De Oliveira Pereira</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>6610000023</v>
+        <v>6610008476</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -5377,11 +5377,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Pedro Victor De Lima Brito</t>
+          <t>Cledson Natan Assis De Lima</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>6610006395</v>
+        <v>6610019512</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -5398,11 +5398,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Yara Samilly Silva Gomes</t>
+          <t>Julya Maryanna Barbosa Monteiro</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>6610020551</v>
+        <v>6610013905</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5419,11 +5419,11 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Luiz Henrique Ribeiro Souto</t>
+          <t>Nayra Rakelle Gonçalves Maciel Gomes</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>6610000294</v>
+        <v>6610005664</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -5440,11 +5440,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Benedito Nunes Barbosa Neto</t>
+          <t>Jose Pedro Da Silva Farias</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>6610007471</v>
+        <v>6610008645</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -5461,11 +5461,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Benaya Coelho Fernandes</t>
+          <t>Danilo Xavier De Freitas</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>6610020889</v>
+        <v>6610007470</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -5482,11 +5482,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Érika Maria Cordeiro Rosa De Siqueira</t>
+          <t>Mariana Magalhães Quaresma Do Nascimento</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>6610004417</v>
+        <v>6610000023</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -5503,11 +5503,11 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Emilly Cléscia Da Silva Sousa</t>
+          <t>Pedro Victor De Lima Brito</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>6610016941</v>
+        <v>6610006395</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5524,11 +5524,11 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Giovanna Gomes Santos</t>
+          <t>Yara Samilly Silva Gomes</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>6610013408</v>
+        <v>6610020551</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5545,11 +5545,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Victor Miguel Cabral De Melo</t>
+          <t>Luiz Henrique Ribeiro Souto</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>6610003241</v>
+        <v>6610000294</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5566,11 +5566,11 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Wyrislaynne Estephanelle Raposo Barros</t>
+          <t>Benedito Nunes Barbosa Neto</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>6610014236</v>
+        <v>6610007471</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5587,11 +5587,11 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Vitória Emanuelle Silva</t>
+          <t>Benaya Coelho Fernandes</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>6610020500</v>
+        <v>6610020889</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5608,11 +5608,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Lays Monteiro Da Silva</t>
+          <t>Érika Maria Cordeiro Rosa De Siqueira</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>6610002038</v>
+        <v>6610004417</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5629,11 +5629,11 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Anni Mauí Pereira Silva Rocha</t>
+          <t>Emilly Cléscia Da Silva Sousa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>6610016730</v>
+        <v>6610016941</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5650,11 +5650,11 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Suyanny Lara De Andrade</t>
+          <t>Giovanna Gomes Santos</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>6610008887</v>
+        <v>6610013408</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5671,11 +5671,11 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Hillary Thayná De Lima Silva</t>
+          <t>Victor Miguel Cabral De Melo</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>6610010516</v>
+        <v>6610003241</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5692,11 +5692,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Angela Maria Augusta Azevedo Da Silva</t>
+          <t>Wyrislaynne Estephanelle Raposo Barros</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>6610010040</v>
+        <v>6610014236</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5713,11 +5713,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Maria Eloise De Pontes Gomes Da Silva</t>
+          <t>Vitória Emanuelle Silva</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>6610013639</v>
+        <v>6610020500</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5734,11 +5734,11 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Maria Clara Da Silva</t>
+          <t>Lays Monteiro Da Silva</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>6610006480</v>
+        <v>6610002038</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5755,11 +5755,11 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Maria Antônia Soares Dos Santos</t>
+          <t>Anni Mauí Pereira Silva Rocha</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>6610002978</v>
+        <v>6610016730</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5776,11 +5776,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Daiane Maria Da Silva</t>
+          <t>Suyanny Lara De Andrade</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>6610009602</v>
+        <v>6610008887</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5797,11 +5797,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Sarah Ingrid Miranda Silva</t>
+          <t>Hillary Thayná De Lima Silva</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>6610005522</v>
+        <v>6610010516</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5818,11 +5818,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Ronnald De Azevedo Ataíde</t>
+          <t>Angela Maria Augusta Azevedo Da Silva</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>6610005523</v>
+        <v>6610010040</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5839,11 +5839,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Ingrid Victória Da Silva</t>
+          <t>Maria Eloise De Pontes Gomes Da Silva</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>6610007752</v>
+        <v>6610013639</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5860,11 +5860,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Alessa Mauhen Menezes De Morais</t>
+          <t>Maria Clara Da Silva</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>6610012894</v>
+        <v>6610006480</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5881,11 +5881,11 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Giuliane Gomes Rocha</t>
+          <t>Maria Antônia Soares Dos Santos</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>6610006988</v>
+        <v>6610002978</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Marcos Pedro Da Silva Filho</t>
+          <t>Daiane Maria Da Silva</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>6610007653</v>
+        <v>6610009602</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5923,11 +5923,11 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Fabricio Martins Borba De Oliveira</t>
+          <t>Sarah Ingrid Miranda Silva</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>6610011782</v>
+        <v>6610005522</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5944,11 +5944,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Isabelle Vitória Gomes Da Silva</t>
+          <t>Ronnald De Azevedo Ataíde</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>6610003905</v>
+        <v>6610005523</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5965,11 +5965,11 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Maria Lívia Mendonça De Brito</t>
+          <t>Ingrid Victória Da Silva</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>6610002498</v>
+        <v>6610007752</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5986,11 +5986,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Tamires Oliveira De Lima</t>
+          <t>Alessa Mauhen Menezes De Morais</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>6610010014</v>
+        <v>6610012894</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -6007,11 +6007,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Lívia Beatriz Pereira Ferreira</t>
+          <t>Giuliane Gomes Rocha</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>6610006408</v>
+        <v>6610006988</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -6028,11 +6028,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Lucas Ferreira Dos Santos</t>
+          <t>Marcos Pedro Da Silva Filho</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>6610000417</v>
+        <v>6610007653</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -6049,11 +6049,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Ana Sofia Américo Ferreira</t>
+          <t>Fabricio Martins Borba De Oliveira</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>6610014839</v>
+        <v>6610011782</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -6070,11 +6070,11 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Maria Warlla Lima Guimaraes</t>
+          <t>Isabelle Vitória Gomes Da Silva</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>6610008567</v>
+        <v>6610003905</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -6091,11 +6091,11 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Luiz Enrique Da Silva Souza Novaes</t>
+          <t>Maria Lívia Mendonça De Brito</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>6610002227</v>
+        <v>6610002498</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -6112,11 +6112,11 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Emilly Leticia Moura Costa</t>
+          <t>Tamires Oliveira De Lima</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>6610015172</v>
+        <v>6610010014</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -6133,11 +6133,11 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Marcella De Fatima Rocha Araujo</t>
+          <t>Lívia Beatriz Pereira Ferreira</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>6610015656</v>
+        <v>6610006408</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -6154,11 +6154,11 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Heloiza Sophhia Gomes De Melo</t>
+          <t>Lucas Ferreira Dos Santos</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>6610000413</v>
+        <v>6610000417</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -6175,11 +6175,11 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Tainá Ribeiro De Barros</t>
+          <t>Ana Sofia Américo Ferreira</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>6610000101</v>
+        <v>6610014839</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -6196,11 +6196,11 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Luana Vitoria Alves De Oliveira</t>
+          <t>Maria Warlla Lima Guimaraes</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>6610007363</v>
+        <v>6610008567</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -6217,11 +6217,11 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Sabrina Freire Alencar</t>
+          <t>Luiz Enrique Da Silva Souza Novaes</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>6610011513</v>
+        <v>6610002227</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -6238,11 +6238,11 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Eduarda França De Lira</t>
+          <t>Emilly Leticia Moura Costa</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>6610003087</v>
+        <v>6610015172</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -6259,11 +6259,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Helena Beatriz Bezerra Da Silva</t>
+          <t>Marcella De Fatima Rocha Araujo</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>6610002313</v>
+        <v>6610015656</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -6280,11 +6280,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Íris Layne Alves Bezerra</t>
+          <t>Heloiza Sophhia Gomes De Melo</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>6610010438</v>
+        <v>6610000413</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E279" t="n">
         <v>278</v>
@@ -6301,11 +6301,11 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Stefani Marta Da Silva Nascimento</t>
+          <t>Tainá Ribeiro De Barros</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>6610010278</v>
+        <v>6610000101</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E280" t="n">
         <v>279</v>
@@ -6322,11 +6322,11 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Antony Gabriel Barbosa Gusmão</t>
+          <t>Luana Vitoria Alves De Oliveira</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>6610003800</v>
+        <v>6610007363</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E281" t="n">
         <v>280</v>
@@ -6343,11 +6343,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Mariana Roberta Da Silva</t>
+          <t>Sabrina Freire Alencar</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>6610021170</v>
+        <v>6610011513</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E282" t="n">
         <v>281</v>
@@ -6364,11 +6364,11 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Syzina Aparecida Ferreira De Lima</t>
+          <t>Eduarda França De Lira</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>6610009564</v>
+        <v>6610003087</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E283" t="n">
         <v>282</v>
@@ -6385,11 +6385,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Juliane Karine Pontes De Oliveira</t>
+          <t>Helena Beatriz Bezerra Da Silva</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>6610012016</v>
+        <v>6610002313</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E284" t="n">
         <v>283</v>
@@ -6406,11 +6406,11 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Sara Victória Santos Menêses</t>
+          <t>Josivaldo Jose Da Silva Filho</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>6610008731</v>
+        <v>6610000424</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -6427,11 +6427,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Josival Raimundo Do Nascimento Filho</t>
+          <t>Íris Layne Alves Bezerra</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>6610006626</v>
+        <v>6610010438</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -6448,11 +6448,11 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Arthur Queiroz Da Silva</t>
+          <t>Stefani Marta Da Silva Nascimento</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>6610011254</v>
+        <v>6610010278</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -6469,11 +6469,11 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Nilvan Gonçalves Buonafina Junior</t>
+          <t>Antony Gabriel Barbosa Gusmão</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>6610020177</v>
+        <v>6610003800</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -6490,11 +6490,11 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Maria Ivoneide Gonçalves Neta</t>
+          <t>Mariana Roberta Da Silva</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>6610006615</v>
+        <v>6610021170</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -6511,11 +6511,11 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Thauane Tamara Diniz De Brito</t>
+          <t>Syzina Aparecida Ferreira De Lima</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>6610004163</v>
+        <v>6610009564</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -6532,11 +6532,11 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Igor Gabriel Lima De Souza</t>
+          <t>Juliane Karine Pontes De Oliveira</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>6610016362</v>
+        <v>6610012016</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -6553,11 +6553,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Lucas Eduardo Mendes Da Silva</t>
+          <t>Sara Victória Santos Menêses</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>6610014115</v>
+        <v>6610008731</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -6574,11 +6574,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Yandra Vitória Pereira Da Silva</t>
+          <t>Josival Raimundo Do Nascimento Filho</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>6610016249</v>
+        <v>6610006626</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -6595,11 +6595,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Leticia Vitória Da Silva Cavalcante</t>
+          <t>Arthur Queiroz Da Silva</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>6610002141</v>
+        <v>6610011254</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -6616,11 +6616,11 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Victor Gabriel Coelho Ribeiro</t>
+          <t>Nilvan Gonçalves Buonafina Junior</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>6610020108</v>
+        <v>6610020177</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -6637,11 +6637,11 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Guilherme Pinheiro De Oliveira</t>
+          <t>Maria Ivoneide Gonçalves Neta</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>6610005397</v>
+        <v>6610006615</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -6658,11 +6658,11 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Dandahra Vitorya Do Nascimento Costa</t>
+          <t>Thauane Tamara Diniz De Brito</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>6610005655</v>
+        <v>6610004163</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -6679,11 +6679,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Luciana Maria De Almeida</t>
+          <t>Igor Gabriel Lima De Souza</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>6610010538</v>
+        <v>6610016362</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -6700,11 +6700,11 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Elany Vitória Dias Barbosa</t>
+          <t>Lucas Eduardo Mendes Da Silva</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>6610004252</v>
+        <v>6610014115</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -6721,11 +6721,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Letícia Vitória Feitosa Muniz</t>
+          <t>Yandra Vitória Pereira Da Silva</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>6610010810</v>
+        <v>6610016249</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -6742,11 +6742,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Maria Heloísa Silva Nogueira</t>
+          <t>Leticia Vitória Da Silva Cavalcante</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>6610005039</v>
+        <v>6610002141</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -6763,11 +6763,11 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Carlos Riquelme De Lima Alves</t>
+          <t>Victor Gabriel Coelho Ribeiro</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>6610014447</v>
+        <v>6610020108</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -6784,11 +6784,11 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Kauan Guilherme Moreira Ferreira</t>
+          <t>Guilherme Pinheiro De Oliveira</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>6610010220</v>
+        <v>6610005397</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -6805,11 +6805,11 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Kaicke De Sá Carvalho Goes</t>
+          <t>Dandahra Vitorya Do Nascimento Costa</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>6610014937</v>
+        <v>6610005655</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -6826,11 +6826,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Vitor Rafael Ramos Da Silva</t>
+          <t>Luciana Maria De Almeida</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>6610010308</v>
+        <v>6610010538</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -6847,11 +6847,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>João Vitor Batista Silva</t>
+          <t>Elany Vitória Dias Barbosa</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>6610015809</v>
+        <v>6610004252</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -6868,11 +6868,11 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Olímpio Da Silva</t>
+          <t>Letícia Vitória Feitosa Muniz</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>6610013228</v>
+        <v>6610010810</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -6889,11 +6889,11 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Aline Gabriela Da Conceição Melo</t>
+          <t>Maria Heloísa Silva Nogueira</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>6610003119</v>
+        <v>6610005039</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -6910,11 +6910,11 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Érica De Lima</t>
+          <t>Carlos Riquelme De Lima Alves</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>6610012361</v>
+        <v>6610014447</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -6931,11 +6931,11 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Hemerson Guilherme Da Silva Alves</t>
+          <t>Kauan Guilherme Moreira Ferreira</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>6610020041</v>
+        <v>6610010220</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -6952,11 +6952,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Sofia De Souza Gomes De Melo</t>
+          <t>Kaicke De Sá Carvalho Goes</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>6610011298</v>
+        <v>6610014937</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -6973,11 +6973,11 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Henrique Fonseca Carneiro</t>
+          <t>Vitor Rafael Ramos Da Silva</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>6610006554</v>
+        <v>6610010308</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -6994,11 +6994,11 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Melina Tarcila  Pereira Campos</t>
+          <t>João Vitor Batista Silva</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>6610006934</v>
+        <v>6610015809</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -7015,11 +7015,11 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Marília Gabriela De Oliveira Lima</t>
+          <t>Lucas Gabriel Olímpio Da Silva</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>6610002579</v>
+        <v>6610013228</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -7036,11 +7036,11 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Darly Natália Soares Dos Santos</t>
+          <t>Aline Gabriela Da Conceição Melo</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>6610020221</v>
+        <v>6610003119</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -7057,11 +7057,11 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Arthur Lima Da Silva</t>
+          <t>Érica De Lima</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>6610001713</v>
+        <v>6610012361</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -7078,11 +7078,11 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Emylle Sabrina Dimas Da Silva</t>
+          <t>Hemerson Guilherme Da Silva Alves</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>6610013717</v>
+        <v>6610020041</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -7099,11 +7099,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Maycon Deivid Virgulino De Sousa  (Maycon Deivid Vir</t>
+          <t>Sofia De Souza Gomes De Melo</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>6610010831</v>
+        <v>6610011298</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -7120,11 +7120,11 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Joao Pedro Ezequiel Cezar</t>
+          <t>Henrique Fonseca Carneiro</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>6610001114</v>
+        <v>6610006554</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -7141,11 +7141,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Daffiny Monalice Alves Da Silva</t>
+          <t>Melina Tarcila  Pereira Campos</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>6610011896</v>
+        <v>6610006934</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -7162,11 +7162,11 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>José Laureano Dos Santos</t>
+          <t>Marília Gabriela De Oliveira Lima</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>6610003365</v>
+        <v>6610002579</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -7183,11 +7183,11 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Maria Iasmim Da Silva Matos Dias</t>
+          <t>Darly Natália Soares Dos Santos</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>6610010437</v>
+        <v>6610020221</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -7204,11 +7204,11 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Lucas Kauã Silva Dos Santos</t>
+          <t>Arthur Lima Da Silva</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>6610014570</v>
+        <v>6610001713</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -7225,11 +7225,11 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Eloisa Cecília Paulino Ferreira</t>
+          <t>Emylle Sabrina Dimas Da Silva</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>6610016503</v>
+        <v>6610013717</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -7246,11 +7246,11 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Heloisa Helena Souza Gomes</t>
+          <t>Maycon Deivid Virgulino De Sousa  (Maycon Deivid Virgulino De Sousa )</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>6610000050</v>
+        <v>6610010831</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -7267,11 +7267,11 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Joana Pedrosa De Fontes</t>
+          <t>Joao Pedro Ezequiel Cezar</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>6610010585</v>
+        <v>6610001114</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -7288,11 +7288,11 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Italo Gabriel Guimarães Do Nascimento</t>
+          <t>Daffiny Monalice Alves Da Silva</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>6610012654</v>
+        <v>6610011896</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -7309,11 +7309,11 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Armando Cordeiro Leite Filho</t>
+          <t>José Laureano Dos Santos</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>6610008132</v>
+        <v>6610003365</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -7330,11 +7330,11 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Maria Clara Ferreira Dos Santos Silva</t>
+          <t>Maria Iasmim Da Silva Matos Dias</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>6610017740</v>
+        <v>6610010437</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -7351,11 +7351,11 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Dara Jemyma Teles Rodrigues</t>
+          <t>Lucas Kauã Silva Dos Santos</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>6610009825</v>
+        <v>6610014570</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -7372,11 +7372,11 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Aryelle Rauany Lima Melo Agostinho  (Aryelle)</t>
+          <t>Eloisa Cecília Paulino Ferreira</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>6610017952</v>
+        <v>6610016503</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -7393,11 +7393,11 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Maria Clara Medeiros De Oliveira</t>
+          <t>Heloisa Helena Souza Gomes</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>6610005074</v>
+        <v>6610000050</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -7414,11 +7414,11 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Ana Beatriz Bento Silva</t>
+          <t>Joana Pedrosa De Fontes</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>6610002724</v>
+        <v>6610010585</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -7435,11 +7435,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Lucas Trajano Da Silva</t>
+          <t>Italo Gabriel Guimarães Do Nascimento</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>6610007430</v>
+        <v>6610012654</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -7456,11 +7456,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Joana Farias Alves De Sousa</t>
+          <t>Armando Cordeiro Leite Filho</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>6610013549</v>
+        <v>6610008132</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -7477,11 +7477,11 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Ana Beatriz Lima Da Silva</t>
+          <t>Maria Clara Ferreira Dos Santos Silva</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>6610013180</v>
+        <v>6610017740</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -7498,11 +7498,11 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Clarice Rodrigues Da Silva Barros</t>
+          <t>Dara Jemyma Teles Rodrigues</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>6610013937</v>
+        <v>6610009825</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -7519,11 +7519,11 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Dawelly Tenorio Cavalcante Da Silva</t>
+          <t>Aryelle Rauany Lima Melo Agostinho  (Aryelle)</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>6610006472</v>
+        <v>6610017952</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -7540,11 +7540,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Nalyne Évine Thaumaturgo Dos Santos</t>
+          <t>Maria Clara Medeiros De Oliveira</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>6610003846</v>
+        <v>6610005074</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -7561,11 +7561,11 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Ainhoa Valentina Dos Santos Gusmão</t>
+          <t>Ana Beatriz Bento Silva</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>6610007734</v>
+        <v>6610002724</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Leticia Maria Da Silva Santos</t>
+          <t>Lucas Trajano Da Silva</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>6610010091</v>
+        <v>6610007430</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -7603,11 +7603,11 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Maria Luiza Tavares Silva</t>
+          <t>Joana Farias Alves De Sousa</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>6610009879</v>
+        <v>6610013549</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -7624,11 +7624,11 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Tharcisio Henrique Barbosa Gomes</t>
+          <t>Ana Beatriz Lima Da Silva</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>6610003944</v>
+        <v>6610013180</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -7645,11 +7645,11 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Carla Beatriz Nunes Da Silva</t>
+          <t>Clarice Rodrigues Da Silva Barros</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>6610009297</v>
+        <v>6610013937</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -7666,11 +7666,11 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Clara Yasmin De Lima Silva</t>
+          <t>Dawelly Tenorio Cavalcante Da Silva</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>6610011049</v>
+        <v>6610006472</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -7687,11 +7687,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Enrico Alves Galdino</t>
+          <t>Nalyne Évine Thaumaturgo Dos Santos</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>6610017668</v>
+        <v>6610003846</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -7708,11 +7708,11 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Weslle Cordeiro Dias</t>
+          <t>Ainhoa Valentina Dos Santos Gusmão</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>6610018230</v>
+        <v>6610007734</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -7729,11 +7729,11 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Maria Eduarda Da Silva</t>
+          <t>Leticia Maria Da Silva Santos</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>6610018955</v>
+        <v>6610010091</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -7750,11 +7750,11 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Maycon Gabriel De Santana</t>
+          <t>Maria Luiza Tavares Silva</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>6610010577</v>
+        <v>6610009879</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -7771,11 +7771,11 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Paulo Guilherme Barros Pimentel</t>
+          <t>Tharcisio Henrique Barbosa Gomes</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>6610014843</v>
+        <v>6610003944</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -7792,11 +7792,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Sandrielly Leticia Silva De Assunção</t>
+          <t>Carla Beatriz Nunes Da Silva</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>6610002397</v>
+        <v>6610009297</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -7813,11 +7813,11 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Josivan Alex Da Silva Gomes</t>
+          <t>Clara Yasmin De Lima Silva</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>6610011349</v>
+        <v>6610011049</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -7834,11 +7834,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Angelina Dias Sales De Lima</t>
+          <t>Enrico Alves Galdino</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>6610013320</v>
+        <v>6610017668</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -7855,11 +7855,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Iale Maria Rabêlo Grigório</t>
+          <t>Weslle Cordeiro Dias</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>6610001767</v>
+        <v>6610018230</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -7876,11 +7876,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Vinicius Junior Gomes Da Silva</t>
+          <t>Maria Eduarda Da Silva</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>6610005051</v>
+        <v>6610018955</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -7897,11 +7897,11 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Victoria Macedo Ferreira</t>
+          <t>Maycon Gabriel De Santana</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>6610009239</v>
+        <v>6610010577</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -7918,11 +7918,11 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Maria Bruniele Dos Santos</t>
+          <t>Paulo Guilherme Barros Pimentel</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>6610007185</v>
+        <v>6610014843</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -7939,11 +7939,11 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Letícia Costa Martins Ferreira</t>
+          <t>Sandrielly Leticia Silva De Assunção</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>6610002728</v>
+        <v>6610002397</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -7960,11 +7960,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Jose Marcello De Carvalho Silva</t>
+          <t>Josivan Alex Da Silva Gomes</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>6610017127</v>
+        <v>6610011349</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -7981,11 +7981,11 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Pedro Vinicius Marques Miranda</t>
+          <t>Angelina Dias Sales De Lima</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>6610006397</v>
+        <v>6610013320</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -8002,11 +8002,11 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Rakely Renata Ferreira Batista</t>
+          <t>Iale Maria Rabêlo Grigório</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>6610013008</v>
+        <v>6610001767</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -8023,11 +8023,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Maria Eduarda Nascimento Santos</t>
+          <t>Vinicius Junior Gomes Da Silva</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>6610016922</v>
+        <v>6610005051</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -8044,11 +8044,11 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Willyane Ferreira Da Silva</t>
+          <t>Victoria Macedo Ferreira</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>6610013059</v>
+        <v>6610009239</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -8065,11 +8065,11 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Tânia Thamirys De Sousa Ferreira</t>
+          <t>Maria Bruniele Dos Santos</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>6610012394</v>
+        <v>6610007185</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -8086,11 +8086,11 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Deyvison José Barbosa</t>
+          <t>Letícia Costa Martins Ferreira</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>6610020607</v>
+        <v>6610002728</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -8107,11 +8107,11 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Gileader Luiz Gomes Bica</t>
+          <t>Jose Marcello De Carvalho Silva</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>6610013936</v>
+        <v>6610017127</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -8128,11 +8128,11 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Sophia Caroline Rocha De Mendonça (Sophia Carolin</t>
+          <t>Pedro Vinicius Marques Miranda</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>6610019917</v>
+        <v>6610006397</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -8149,11 +8149,11 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Clarice Cândido Da Silva Santos</t>
+          <t>Rakely Renata Ferreira Batista</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>6610014020</v>
+        <v>6610013008</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -8170,11 +8170,11 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Anna Laura Brandão Dos Santos</t>
+          <t>Maria Eduarda Nascimento Santos</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>6610002898</v>
+        <v>6610016922</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -8191,11 +8191,11 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Ingrid Maria Costa De Oliveira</t>
+          <t>Willyane Ferreira Da Silva</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>6610017098</v>
+        <v>6610013059</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -8212,11 +8212,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Samuel Barbosa Moreira</t>
+          <t>Tânia Thamirys De Sousa Ferreira</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>6610003636</v>
+        <v>6610012394</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -8233,11 +8233,11 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Adryely De Almeida Lima</t>
+          <t>Deyvison José Barbosa</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>6610007124</v>
+        <v>6610020607</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -8254,11 +8254,11 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Leticia Gabrielle Santos Brayner Vieira</t>
+          <t>Gileader Luiz Gomes Bica</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>6610011264</v>
+        <v>6610013936</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -8275,11 +8275,11 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Larissa Souza Soares</t>
+          <t>Sophia Caroline Rocha De Mendonça (Sophia Caroline Rocha De Mendonça)</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>6610016147</v>
+        <v>6610019917</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -8296,11 +8296,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Maria Cecilia Gomes Benites</t>
+          <t>Clarice Cândido Da Silva Santos</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>6610017052</v>
+        <v>6610014020</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -8317,11 +8317,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Denivan Barbalho Santos</t>
+          <t>Anna Laura Brandão Dos Santos</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>6610016645</v>
+        <v>6610002898</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -8338,11 +8338,11 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Diogo Hermenegildo Lins Nascimento</t>
+          <t>Ingrid Maria Costa De Oliveira</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>6610008120</v>
+        <v>6610017098</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -8359,11 +8359,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Sophya Torres Da Silva</t>
+          <t>Samuel Barbosa Moreira</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>6610000665</v>
+        <v>6610003636</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -8380,11 +8380,11 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Carollayne Batista Da Silva</t>
+          <t>Adryely De Almeida Lima</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>6610009806</v>
+        <v>6610007124</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -8401,11 +8401,11 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Marisa Barbosa Inácio De Magalhães</t>
+          <t>Leticia Gabrielle Santos Brayner Vieira</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>6610018652</v>
+        <v>6610011264</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -8422,11 +8422,11 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Maria Isabela Pereira De Almeida.</t>
+          <t>Larissa Souza Soares</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>6610014945</v>
+        <v>6610016147</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -8443,11 +8443,11 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Amanda Dos Santos Vasconcelos</t>
+          <t>Maria Cecilia Gomes Benites</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>6610002550</v>
+        <v>6610017052</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -8464,11 +8464,11 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Maria Aurea Soares De Souza</t>
+          <t>Denivan Barbalho Santos</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>6610008215</v>
+        <v>6610016645</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -8485,11 +8485,11 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Miguel Nunes Lopes</t>
+          <t>Diogo Hermenegildo Lins Nascimento</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>6610005541</v>
+        <v>6610008120</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -8506,11 +8506,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Ana Beatriz Azevedo Da Silva</t>
+          <t>Sophya Torres Da Silva</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>6610010462</v>
+        <v>6610000665</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -8527,11 +8527,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Gleyceane Vitoria Martins Silva</t>
+          <t>Carollayne Batista Da Silva</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>6610012772</v>
+        <v>6610009806</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -8548,11 +8548,11 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Jamilly Gonçalves Machado</t>
+          <t>Marisa Barbosa Inácio De Magalhães</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>6610013209</v>
+        <v>6610018652</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -8569,11 +8569,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Joyce Rakeli Soares Silvério</t>
+          <t>Maria Isabela Pereira De Almeida.</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>6610017610</v>
+        <v>6610014945</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -8590,11 +8590,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Luiz Henrique De Moura Barbosa</t>
+          <t>Amanda Dos Santos Vasconcelos</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>6610007389</v>
+        <v>6610002550</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -8611,11 +8611,11 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Ester De Lima Soares Cabral</t>
+          <t>Maria Aurea Soares De Souza</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>6610005959</v>
+        <v>6610008215</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -8632,11 +8632,11 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Gregório Fernando Berrotarán</t>
+          <t>Miguel Nunes Lopes</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>6610014300</v>
+        <v>6610005541</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -8653,11 +8653,11 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Thaiane Natalia Ciqueira Da Silva</t>
+          <t>Ana Beatriz Azevedo Da Silva</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>6610002056</v>
+        <v>6610010462</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -8674,11 +8674,11 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>João Vinícius Claudino Leite</t>
+          <t>Gleyceane Vitoria Martins Silva</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>6610013692</v>
+        <v>6610012772</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -8695,11 +8695,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Glória Maria Lucena Da Silva</t>
+          <t>Jamilly Gonçalves Machado</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>6610002587</v>
+        <v>6610013209</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -8716,11 +8716,11 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Éllen Lohanny Batista Dos Santos Nunes</t>
+          <t>Joyce Rakeli Soares Silvério</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>6610005861</v>
+        <v>6610017610</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -8737,11 +8737,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Maria Júlia Bernardino Ângelo</t>
+          <t>Marlon David Lins Ribeiro Filho</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>6610010170</v>
+        <v>6610015525</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -8758,11 +8758,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Yasmin Emanuela Da Luz Silva</t>
+          <t>Luiz Henrique De Moura Barbosa</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>6610016788</v>
+        <v>6610007389</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -8779,11 +8779,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Thamires Correia Da Rocha</t>
+          <t>Ester De Lima Soares Cabral</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>6610017571</v>
+        <v>6610005959</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -8800,11 +8800,11 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>José Wesley Gomes De Sousa Martins</t>
+          <t>Gregório Fernando Berrotarán</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>6610019099</v>
+        <v>6610014300</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -8821,11 +8821,11 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Rute Santos Bomfim Marques  (Rute Santos Bomfim M</t>
+          <t>Thaiane Natalia Ciqueira Da Silva</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>6610011562</v>
+        <v>6610002056</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -8842,11 +8842,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Tháfilla Suzany Silva Dos Santos</t>
+          <t>João Vinícius Claudino Leite</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>6610008499</v>
+        <v>6610013692</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -8863,11 +8863,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Ianderson Kauan Pereira Da Silva</t>
+          <t>Glória Maria Lucena Da Silva</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>6610007087</v>
+        <v>6610002587</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -8884,11 +8884,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Izabela Santos Nascimento</t>
+          <t>Éllen Lohanny Batista Dos Santos Nunes</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>6610007616</v>
+        <v>6610005861</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -8905,11 +8905,11 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Gabriel Victor Clemente De Souza</t>
+          <t>Maria Júlia Bernardino Ângelo</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>6610001207</v>
+        <v>6610010170</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -8926,11 +8926,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>José Victor Firmino Alves</t>
+          <t>Yasmin Emanuela Da Luz Silva</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>6610015899</v>
+        <v>6610016788</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -8947,11 +8947,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Lucas Vinícius De Freitas</t>
+          <t>Thamires Correia Da Rocha</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>6610012233</v>
+        <v>6610017571</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -8968,11 +8968,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Yasmim Kamile Kelme Lima De Oliveira</t>
+          <t>José Wesley Gomes De Sousa Martins</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>6610019005</v>
+        <v>6610019099</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -8989,11 +8989,11 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Ana Clara Pereira Da Silva</t>
+          <t>Rute Santos Bomfim Marques  (Rute Santos Bomfim Marques)</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>6610016915</v>
+        <v>6610011562</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -9010,11 +9010,11 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Yasmim Viviane Lacerda Cordeiro Do Nascimento</t>
+          <t>Tháfilla Suzany Silva Dos Santos</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>6610000818</v>
+        <v>6610008499</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -9031,11 +9031,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Ariele De Souza Silva</t>
+          <t>Ianderson Kauan Pereira Da Silva</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>6610019614</v>
+        <v>6610007087</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -9052,11 +9052,11 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Raquel Gomes Silva</t>
+          <t>Izabela Santos Nascimento</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>6610008175</v>
+        <v>6610007616</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -9073,11 +9073,11 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Maria Eduarda Da Silva</t>
+          <t>Gabriel Victor Clemente De Souza</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>6610013810</v>
+        <v>6610001207</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -9094,11 +9094,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Deborah De Sousa Jetto Farias Lucena</t>
+          <t>José Victor Firmino Alves</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>6610003776</v>
+        <v>6610015899</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -9115,11 +9115,11 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Déborah Nayara Do Nascimento Silva</t>
+          <t>Lucas Vinícius De Freitas</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>6610020052</v>
+        <v>6610012233</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -9136,11 +9136,11 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Laryssa Vitória Xavier Pereira</t>
+          <t>Yasmim Kamile Kelme Lima De Oliveira</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>6610013097</v>
+        <v>6610019005</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -9157,11 +9157,11 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Eliéveli Silva Dos Santos</t>
+          <t>Ana Clara Pereira Da Silva</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>6610014961</v>
+        <v>6610016915</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -9178,11 +9178,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Cauane Maria Dos Santos Barros</t>
+          <t>Yasmim Viviane Lacerda Cordeiro Do Nascimento</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>6610002735</v>
+        <v>6610000818</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -9199,11 +9199,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Heloísa Beatriz Da Silva Santos</t>
+          <t>Ariele De Souza Silva</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>6610008465</v>
+        <v>6610019614</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -9220,11 +9220,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Cauany Tenório De Melo</t>
+          <t>Raquel Gomes Silva</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>6610021109</v>
+        <v>6610008175</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -9241,11 +9241,11 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Evellyn Suellen Da Silva</t>
+          <t>Maria Eduarda Da Silva</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>6610015235</v>
+        <v>6610013810</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Arielly Kézia Cândido Da Silva</t>
+          <t>Deborah De Sousa Jetto Farias Lucena</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>6610004423</v>
+        <v>6610003776</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -9283,11 +9283,11 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Natália Ednailda Alves  (Nathan Gabriel Alves )</t>
+          <t>Déborah Nayara Do Nascimento Silva</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>6610012479</v>
+        <v>6610020052</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -9304,11 +9304,11 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Maria Emiryele Da Silva</t>
+          <t>Laryssa Vitória Xavier Pereira</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>6610010889</v>
+        <v>6610013097</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -9325,11 +9325,11 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Beatriz Ferreira De Souza</t>
+          <t>Eliéveli Silva Dos Santos</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>6610011035</v>
+        <v>6610014961</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -9346,11 +9346,11 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Clara Lima Varão</t>
+          <t>Cauane Maria Dos Santos Barros</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>6610010725</v>
+        <v>6610002735</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -9367,11 +9367,11 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Maria Heloísa Siqueira E Silva</t>
+          <t>Heloísa Beatriz Da Silva Santos</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>6610006424</v>
+        <v>6610008465</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -9388,11 +9388,11 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Alberes Miguel De Lima Souza</t>
+          <t>Cauany Tenório De Melo</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>6610007499</v>
+        <v>6610021109</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -9409,11 +9409,11 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Anilton De Menezes Gomes</t>
+          <t>Evellyn Suellen Da Silva</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>6610001996</v>
+        <v>6610015235</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -9430,11 +9430,11 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Anita Gabriele Barata Santana Da Silva</t>
+          <t>Arielly Kézia Cândido Da Silva</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>6610014021</v>
+        <v>6610004423</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -9451,11 +9451,11 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Jamylla Tavares Monteiro Da Silva</t>
+          <t>Natália Ednailda Alves  (Nathan Gabriel Alves )</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>6610003561</v>
+        <v>6610012479</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -9472,11 +9472,11 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Mirelly Gabrielly De Moura Silva</t>
+          <t>Maria Emiryele Da Silva</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>6610012245</v>
+        <v>6610010889</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -9493,11 +9493,11 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Jerson Ferreira De Menezes</t>
+          <t>Beatriz Ferreira De Souza</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>6610006375</v>
+        <v>6610011035</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -9514,11 +9514,11 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Leticia Gabriele Chagas Da Silva (Leticia Gabriela Cha</t>
+          <t>Clara Lima Varão</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>6610020015</v>
+        <v>6610010725</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -9535,11 +9535,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Allyston Jose Dos Santos Tavares Barra Nova</t>
+          <t>Maria Heloísa Siqueira E Silva</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>6610008701</v>
+        <v>6610006424</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -9556,11 +9556,11 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Ana Carolline Gamboa Neves</t>
+          <t>Alberes Miguel De Lima Souza</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>6610006027</v>
+        <v>6610007499</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -9577,11 +9577,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Liedson Domingos De Oliveira</t>
+          <t>Anilton De Menezes Gomes</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>6610008208</v>
+        <v>6610001996</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -9598,11 +9598,11 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Matheus Faustino Da Silva</t>
+          <t>Anita Gabriele Barata Santana Da Silva</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>6610018181</v>
+        <v>6610014021</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -9619,11 +9619,11 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Laryssa Vitoria Da Silva Santos</t>
+          <t>Jamylla Tavares Monteiro Da Silva</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>6610012922</v>
+        <v>6610003561</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -9640,11 +9640,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Maria Jullya Leandro Almeida</t>
+          <t>Mirelly Gabrielly De Moura Silva</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>6610001809</v>
+        <v>6610012245</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -9661,11 +9661,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Rianna Thainá Tito Dos Santos</t>
+          <t>Jerson Ferreira De Menezes</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>6610012949</v>
+        <v>6610006375</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -9682,11 +9682,11 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Eva Liliam Gomes Dourado Silva.</t>
+          <t>Leticia Gabriele Chagas Da Silva (Leticia Gabriela Chagas Da Silva)</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>6610003789</v>
+        <v>6610020015</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -9703,11 +9703,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Alice Gabrielly Da Silva</t>
+          <t>Allyston Jose Dos Santos Tavares Barra Nova</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>6610001417</v>
+        <v>6610008701</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Ananda Cavalcanti De Souza E Silva (Ananda Cavalca</t>
+          <t>Ana Carolline Gamboa Neves</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>6610005557</v>
+        <v>6610006027</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -9745,11 +9745,11 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Ana Carolina De Andrade</t>
+          <t>Liedson Domingos De Oliveira</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>6610000556</v>
+        <v>6610008208</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -9766,11 +9766,11 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Hermione Vitória Xavier Da Rocha</t>
+          <t>Matheus Faustino Da Silva</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>6610000930</v>
+        <v>6610018181</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -9787,11 +9787,11 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Emanuelle Cavalcante Ferreira</t>
+          <t>Laryssa Vitoria Da Silva Santos</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>6610007000</v>
+        <v>6610012922</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -9808,11 +9808,11 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Guilherme Viana Da Silva</t>
+          <t>Maria Jullya Leandro Almeida</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>6610012849</v>
+        <v>6610001809</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -9829,11 +9829,11 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Alice Camily Da Silva Ramos  (Alice Camily Da Silva R</t>
+          <t>Rianna Thainá Tito Dos Santos</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>6610012945</v>
+        <v>6610012949</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -9850,11 +9850,11 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Lais Fernanda Assis De Melo</t>
+          <t>Eva Liliam Gomes Dourado Silva.</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>6610012795</v>
+        <v>6610003789</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -9871,11 +9871,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Arthur Leonardo Da Silva</t>
+          <t>Alice Gabrielly Da Silva</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>6610008928</v>
+        <v>6610001417</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -9892,11 +9892,11 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Aline Abreu Da Cruz</t>
+          <t>Ananda Cavalcanti De Souza E Silva (Ananda Cavalcanti )</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>6610001390</v>
+        <v>6610005557</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -9913,11 +9913,11 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>João Victor Guimarães De Andrade Rodrigues</t>
+          <t>Ana Carolina De Andrade</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>6610009779</v>
+        <v>6610000556</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -9934,11 +9934,11 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Gabriele Bernardo Peixoto</t>
+          <t>Hermione Vitória Xavier Da Rocha</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>6610009778</v>
+        <v>6610000930</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -9955,11 +9955,11 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Maria Clara Silva</t>
+          <t>Emanuelle Cavalcante Ferreira</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>6610001041</v>
+        <v>6610007000</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -9976,11 +9976,11 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Maycon Ruan Santos Vieira</t>
+          <t>Guilherme Viana Da Silva</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>6610001218</v>
+        <v>6610012849</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -9997,11 +9997,11 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Emilly Nicoly Costa Ferreira</t>
+          <t>Alice Camily Da Silva Ramos  (Alice Camily Da Silva Ramos )</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>6610013605</v>
+        <v>6610012945</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -10018,11 +10018,11 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Nathália Vitória Da Silva Melo</t>
+          <t>Lais Fernanda Assis De Melo</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>6610018038</v>
+        <v>6610012795</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -10039,11 +10039,11 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Raissa Dos Santos Silva</t>
+          <t>Arthur Leonardo Da Silva</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>6610002215</v>
+        <v>6610008928</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -10060,11 +10060,11 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Bruno Kayky Da Silva Santos</t>
+          <t>Aline Abreu Da Cruz</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>6610010432</v>
+        <v>6610001390</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -10081,11 +10081,11 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>José Luiz De Melo Neto  (José )</t>
+          <t>João Victor Guimarães De Andrade Rodrigues</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>6610019004</v>
+        <v>6610009779</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -10102,11 +10102,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Itelmar André Soares Barbosa Filho</t>
+          <t>Gabriele Bernardo Peixoto</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>6610010288</v>
+        <v>6610009778</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -10123,11 +10123,11 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Fernanda Vitoria Soares De Mendonca</t>
+          <t>Maria Clara Silva</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>6610012199</v>
+        <v>6610001041</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -10144,11 +10144,11 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Liandra Beatriz De Lira</t>
+          <t>Maycon Ruan Santos Vieira</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>6610004680</v>
+        <v>6610001218</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -10165,11 +10165,11 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Izabela Martins Dos Santos Ferreira</t>
+          <t>Emilly Nicoly Costa Ferreira</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>6610010255</v>
+        <v>6610013605</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -10186,11 +10186,11 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Eva Pietra Torquato Da Silva</t>
+          <t>Nathália Vitória Da Silva Melo</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>6610012965</v>
+        <v>6610018038</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -10207,11 +10207,11 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Maria Cecília Santos Moraes</t>
+          <t>Raissa Dos Santos Silva</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>6610002674</v>
+        <v>6610002215</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -10228,11 +10228,11 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Luciana Gomes Barbosa Da Silva</t>
+          <t>Bruno Kayky Da Silva Santos</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>6610018259</v>
+        <v>6610010432</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -10249,11 +10249,11 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Luis Fernandes Barbosa Ribeiro Teixeira</t>
+          <t>José Luiz De Melo Neto  (José )</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>6610014719</v>
+        <v>6610019004</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -10270,11 +10270,11 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Vítor Manoel Dos Santos Santiago</t>
+          <t>Itelmar André Soares Barbosa Filho</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>6610018972</v>
+        <v>6610010288</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -10291,11 +10291,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Iancarla De Lima Silva</t>
+          <t>Fernanda Vitoria Soares De Mendonca</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>6610002853</v>
+        <v>6610012199</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -10312,11 +10312,11 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Davi Dos Santos Gonçalves Filho</t>
+          <t>Liandra Beatriz De Lira</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>6610011374</v>
+        <v>6610004680</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -10333,11 +10333,11 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Ariely Barros De Lima</t>
+          <t>Izabela Martins Dos Santos Ferreira</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>6610005293</v>
+        <v>6610010255</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -10354,11 +10354,11 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Leticia Karla Oliveira De Souza</t>
+          <t>Eva Pietra Torquato Da Silva</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>6610007434</v>
+        <v>6610012965</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -10375,11 +10375,11 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Naielly Marley Nascimento De Souza</t>
+          <t>Maria Cecília Santos Moraes</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>6610001956</v>
+        <v>6610002674</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -10396,11 +10396,11 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Andrey José Da Silva</t>
+          <t>Luciana Gomes Barbosa Da Silva</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>6610007376</v>
+        <v>6610018259</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -10417,11 +10417,11 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Maria Eduarda De Souza Nascimento</t>
+          <t>Luis Fernandes Barbosa Ribeiro Teixeira</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>6610004303</v>
+        <v>6610014719</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -10438,11 +10438,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Maria Eduarda Da Silva</t>
+          <t>Vítor Manoel Dos Santos Santiago</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>6610001988</v>
+        <v>6610018972</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -10459,11 +10459,11 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Gabriele Martins Albuquerque Da Silva</t>
+          <t>Iancarla De Lima Silva</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>6610004064</v>
+        <v>6610002853</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -10480,11 +10480,11 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Maria Clara Do Nascimento Ferreira Da Silva</t>
+          <t>Davi Dos Santos Gonçalves Filho</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>6610007735</v>
+        <v>6610011374</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -10501,11 +10501,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Cicero Vitor Tavares Da Silva</t>
+          <t>Ariely Barros De Lima</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>6610002738</v>
+        <v>6610005293</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -10522,11 +10522,11 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Maria Helena Nunes Viana Souza De Araújo</t>
+          <t>Leticia Karla Oliveira De Souza</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>6610020443</v>
+        <v>6610007434</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -10543,11 +10543,11 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Letícia Emanuelly Da Silva</t>
+          <t>Naielly Marley Nascimento De Souza</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>6610004678</v>
+        <v>6610001956</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -10564,11 +10564,11 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Maria Eduarda Da Silva Nascimento</t>
+          <t>Andrey José Da Silva</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>6610013977</v>
+        <v>6610007376</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -10585,11 +10585,11 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Pedro Renato Dos Santos Alves</t>
+          <t>Maria Eduarda De Souza Nascimento</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>6610017621</v>
+        <v>6610004303</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -10606,11 +10606,11 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>João Victor Ferreira Ramos De Andrade</t>
+          <t>Maria Eduarda Da Silva</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>6610010888</v>
+        <v>6610001988</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -10627,11 +10627,11 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Maria Clara Silvino Do Nascimento</t>
+          <t>Gabriele Martins Albuquerque Da Silva</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>6610014015</v>
+        <v>6610004064</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -10648,11 +10648,11 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Evelyn Rayssa Silva De Santana</t>
+          <t>Maria Clara Do Nascimento Ferreira Da Silva</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>6610005370</v>
+        <v>6610007735</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -10669,11 +10669,11 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Maria Julia Silva Correia De Araujo</t>
+          <t>Cicero Vitor Tavares Da Silva</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>6610015257</v>
+        <v>6610002738</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
@@ -10690,11 +10690,11 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Laura Beatriz Lucas Gonçalves</t>
+          <t>Maria Helena Nunes Viana Souza De Araújo</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>6610018455</v>
+        <v>6610020443</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -10711,11 +10711,11 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Lívia Maria Bezerra De França</t>
+          <t>Letícia Emanuelly Da Silva</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>6610000408</v>
+        <v>6610004678</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -10732,11 +10732,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Alessandra Karla Santos Da Silva</t>
+          <t>Maria Eduarda Da Silva Nascimento</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>6610012331</v>
+        <v>6610013977</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -10753,11 +10753,11 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Beatriz Vitória Santos Da Silva</t>
+          <t>Pedro Renato Dos Santos Alves</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>6610021116</v>
+        <v>6610017621</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -10774,11 +10774,11 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Lorena Lima De Souza</t>
+          <t>João Victor Ferreira Ramos De Andrade</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>6610013734</v>
+        <v>6610010888</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -10795,11 +10795,11 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Gabriel Campelo Botelho</t>
+          <t>Maria Clara Silvino Do Nascimento</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>6610010228</v>
+        <v>6610014015</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -10816,11 +10816,11 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Mariana Soares Da Silva</t>
+          <t>Evelyn Rayssa Silva De Santana</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>6610006928</v>
+        <v>6610005370</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -10837,11 +10837,11 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Heloá Ingledy De França Silva</t>
+          <t>Maria Julia Silva Correia De Araujo</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>6610013393</v>
+        <v>6610015257</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -10858,11 +10858,11 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Maria Elizabete De Almeida Nascimento</t>
+          <t>Laura Beatriz Lucas Gonçalves</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>6610000718</v>
+        <v>6610018455</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -10879,11 +10879,11 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Pablo Ruan De Souza Barreto</t>
+          <t>Lívia Maria Bezerra De França</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>6610017213</v>
+        <v>6610000408</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -10900,11 +10900,11 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Jucely Oliveira Dos Santos</t>
+          <t>Alessandra Karla Santos Da Silva</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>6610013846</v>
+        <v>6610012331</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -10921,11 +10921,11 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Julia Da Silva Gomes</t>
+          <t>Beatriz Vitória Santos Da Silva</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>6610019245</v>
+        <v>6610021116</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Iêda Lorena Claudino Da Silva</t>
+          <t>Lorena Lima De Souza</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>6610005819</v>
+        <v>6610013734</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -10963,11 +10963,11 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Lais Bezerra Dos Santos</t>
+          <t>Gabriel Campelo Botelho</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>6610014001</v>
+        <v>6610010228</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -10984,11 +10984,11 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Fernanda Santos De Brito</t>
+          <t>Mariana Soares Da Silva</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>6610008644</v>
+        <v>6610006928</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -11005,11 +11005,11 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Jeferson Ferreira De Menezes</t>
+          <t>Heloá Ingledy De França Silva</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>6610006383</v>
+        <v>6610013393</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -11026,11 +11026,11 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Maria Clara Dos Santos</t>
+          <t>Maria Elizabete De Almeida Nascimento</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>6610017311</v>
+        <v>6610000718</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E505" t="n">
         <v>504</v>
@@ -11047,11 +11047,11 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Katiane Maria Da Silva</t>
+          <t>Pablo Ruan De Souza Barreto</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>6610003235</v>
+        <v>6610017213</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E506" t="n">
         <v>505</v>
@@ -11068,11 +11068,11 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Victor Nascimento Rodrigues</t>
+          <t>Jucely Oliveira Dos Santos</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>6610016711</v>
+        <v>6610013846</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E507" t="n">
         <v>506</v>
@@ -11089,11 +11089,11 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Camila Alves Da Silva</t>
+          <t>Julia Da Silva Gomes</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>6610013771</v>
+        <v>6610019245</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E508" t="n">
         <v>507</v>
@@ -11110,11 +11110,11 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Nathan Arthur Da Silva</t>
+          <t>Iêda Lorena Claudino Da Silva</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>6610014127</v>
+        <v>6610005819</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E509" t="n">
         <v>508</v>
@@ -11131,11 +11131,11 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Inaldo Arcoverde De Almeida Filho</t>
+          <t>Lais Bezerra Dos Santos</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>6610018052</v>
+        <v>6610014001</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E510" t="n">
         <v>509</v>
@@ -11152,11 +11152,11 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Everson Campos Vieira Da Silva</t>
+          <t>Fernanda Santos De Brito</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>6610014017</v>
+        <v>6610008644</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E511" t="n">
         <v>510</v>
@@ -11173,11 +11173,11 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Elizabethe Vital Gonçalves</t>
+          <t>Jeferson Ferreira De Menezes</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>6610009851</v>
+        <v>6610006383</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -11185,7 +11185,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E512" t="n">
         <v>511</v>
@@ -11194,11 +11194,11 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Pedro Henrique Edgar Amaro Liberato</t>
+          <t>Maria Clara Dos Santos</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>6610005478</v>
+        <v>6610017311</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -11215,11 +11215,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Vanessa Jeniffer De Lima Santos</t>
+          <t>Katiane Maria Da Silva</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>6610011201</v>
+        <v>6610003235</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
@@ -11236,11 +11236,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Maria Lauany Da Silva</t>
+          <t>Victor Nascimento Rodrigues</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>6610005760</v>
+        <v>6610016711</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
@@ -11257,11 +11257,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Ulisses De Assis Amaral</t>
+          <t>Camila Alves Da Silva</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>6610008408</v>
+        <v>6610013771</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
@@ -11278,11 +11278,11 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Luan Silva Galdino</t>
+          <t>Nathan Arthur Da Silva</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>6610015758</v>
+        <v>6610014127</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
@@ -11299,11 +11299,11 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Maria Paula Peixoto De Noroes Rocha</t>
+          <t>Inaldo Arcoverde De Almeida Filho</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>6610007745</v>
+        <v>6610018052</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
@@ -11320,11 +11320,11 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Fernanda De Sousa Lermen</t>
+          <t>Everson Campos Vieira Da Silva</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>6610015619</v>
+        <v>6610014017</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
@@ -11341,11 +11341,11 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Caio Vinícius Hermínio Da Silva</t>
+          <t>Elizabethe Vital Gonçalves</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>6610006076</v>
+        <v>6610009851</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
@@ -11362,11 +11362,11 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Glória Kémily Galdino De Melo Da Silva  (Glória Galdin</t>
+          <t>Pedro Henrique Edgar Amaro Liberato</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>6610004909</v>
+        <v>6610005478</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
@@ -11383,11 +11383,11 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Ketiley Victória Pereira Leite Santos</t>
+          <t>Vanessa Jeniffer De Lima Santos</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>6610016822</v>
+        <v>6610011201</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
@@ -11404,11 +11404,11 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Yanne Leoncio Dos Santos</t>
+          <t>Maria Lauany Da Silva</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>6610013200</v>
+        <v>6610005760</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
@@ -11425,11 +11425,11 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Leticya Ribeiro Do Santos Caetano</t>
+          <t>Ulisses De Assis Amaral</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>6610020743</v>
+        <v>6610008408</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
@@ -11446,11 +11446,11 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Maryanne Bárbara Silva Cavalcanti</t>
+          <t>Luan Silva Galdino</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>6610008048</v>
+        <v>6610015758</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
@@ -11467,11 +11467,11 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Maria Clara Batista Da Silva</t>
+          <t>Maria Paula Peixoto De Noroes Rocha</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>6610004655</v>
+        <v>6610007745</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
@@ -11488,11 +11488,11 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Isabelle Vitória Medeiros De Andrade</t>
+          <t>Fernanda De Sousa Lermen</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>6610009785</v>
+        <v>6610015619</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
@@ -11509,11 +11509,11 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Rafael Silva De Oliveira</t>
+          <t>Caio Vinícius Hermínio Da Silva</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>6610011376</v>
+        <v>6610006076</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
@@ -11530,11 +11530,11 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Amanda Louyse De Andrade</t>
+          <t>Glória Kémily Galdino De Melo Da Silva  (Glória Galdino)</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>6610012308</v>
+        <v>6610004909</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
@@ -11551,11 +11551,11 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Mariany França Veloso Da Silva</t>
+          <t>Ketiley Victória Pereira Leite Santos</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>6610017335</v>
+        <v>6610016822</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
@@ -11572,11 +11572,11 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Maria De Fátima Sousa Bezerra</t>
+          <t>Yanne Leoncio Dos Santos</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>6610006060</v>
+        <v>6610013200</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
@@ -11593,11 +11593,11 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Samara Vitória Ramos Cavalcanti</t>
+          <t>Leticya Ribeiro Do Santos Caetano</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>6610009732</v>
+        <v>6610020743</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
@@ -11614,11 +11614,11 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Maria Beatriz Lopes Da Silva</t>
+          <t>Maryanne Bárbara Silva Cavalcanti</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>6610007742</v>
+        <v>6610008048</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
@@ -11635,11 +11635,11 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Danilo De Sousa Silva</t>
+          <t>Maria Clara Batista Da Silva</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>6610020533</v>
+        <v>6610004655</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
@@ -11656,11 +11656,11 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Flórida Maryanna Accioly Braz Da Silva</t>
+          <t>Isabelle Vitória Medeiros De Andrade</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>6610001609</v>
+        <v>6610009785</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
@@ -11677,11 +11677,11 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Pabllo Henriky Santana Da Mata</t>
+          <t>Rafael Silva De Oliveira</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>6610011383</v>
+        <v>6610011376</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
@@ -11698,11 +11698,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>João Vitor Silva Amorim</t>
+          <t>Amanda Louyse De Andrade</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>6610006913</v>
+        <v>6610012308</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
@@ -11719,11 +11719,11 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>João Vinícius Da Silva</t>
+          <t>Mariany França Veloso Da Silva</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>6610014953</v>
+        <v>6610017335</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
@@ -11740,11 +11740,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Adrielly Itauanny Santos Pereira</t>
+          <t>Maria De Fátima Sousa Bezerra</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>6610004283</v>
+        <v>6610006060</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
@@ -11761,11 +11761,11 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Mayra Camily Souza Ferreira</t>
+          <t>Samara Vitória Ramos Cavalcanti</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>6610005158</v>
+        <v>6610009732</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
@@ -11782,11 +11782,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Sthefany Alves Da Silva</t>
+          <t>Maria Beatriz Lopes Da Silva</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>6610016801</v>
+        <v>6610007742</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
@@ -11803,11 +11803,11 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Bruna Maria Fernandes Menezes</t>
+          <t>Danilo De Sousa Silva</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>6610006659</v>
+        <v>6610020533</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -11824,11 +11824,11 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Luana Rakelli Eduardo Cavalcante</t>
+          <t>Flórida Maryanna Accioly Braz Da Silva</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>6610008336</v>
+        <v>6610001609</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -11845,11 +11845,11 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>João Victor Silva Santos</t>
+          <t>Pabllo Henriky Santana Da Mata</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>6610010276</v>
+        <v>6610011383</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -11866,11 +11866,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Lara Fernanda Da Silva Queiroz</t>
+          <t>João Vitor Silva Amorim</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>6610001971</v>
+        <v>6610006913</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -11887,11 +11887,11 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Claudiane Pereira Da Silva</t>
+          <t>João Vinícius Da Silva</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>6610015878</v>
+        <v>6610014953</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -11908,11 +11908,11 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Kamila Beatriz Torres De Lima</t>
+          <t>Adrielly Itauanny Santos Pereira</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>6610006636</v>
+        <v>6610004283</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -11929,11 +11929,11 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Eloiza Amanda Higino De Macedo</t>
+          <t>Mayra Camily Souza Ferreira</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>6610010085</v>
+        <v>6610005158</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
@@ -11950,11 +11950,11 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Thales Emanoel Ferreira De Luna  (Thales Emanoel F</t>
+          <t>Sthefany Alves Da Silva</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>6610002444</v>
+        <v>6610016801</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
@@ -11971,11 +11971,11 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Gabriel Da Silva Nogueira</t>
+          <t>Bruna Maria Fernandes Menezes</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>6610002119</v>
+        <v>6610006659</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
@@ -11992,11 +11992,11 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Jhennyf Beatriz Da Silva Diniz</t>
+          <t>Luana Rakelli Eduardo Cavalcante</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>6610015677</v>
+        <v>6610008336</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
@@ -12013,11 +12013,11 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Deyvid Edson Da Silva</t>
+          <t>João Victor Silva Santos</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>6610001766</v>
+        <v>6610010276</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
@@ -12034,11 +12034,11 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Andrielly Severina Lino Da Silva</t>
+          <t>Lara Fernanda Da Silva Queiroz</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>6610007648</v>
+        <v>6610001971</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
@@ -12055,11 +12055,11 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Samara Da Silva Santos</t>
+          <t>Claudiane Pereira Da Silva</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>6610004674</v>
+        <v>6610015878</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
@@ -12076,11 +12076,11 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Maryanny Nykoly Pereira Valentim</t>
+          <t>Kamila Beatriz Torres De Lima</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>6610011751</v>
+        <v>6610006636</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
@@ -12097,11 +12097,11 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Gabrielly Beatriz Ferreira Da Costa</t>
+          <t>Eloiza Amanda Higino De Macedo</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>6610019007</v>
+        <v>6610010085</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
@@ -12118,11 +12118,11 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Marcio Wilvson De Sales Souza</t>
+          <t>Thales Emanoel Ferreira De Luna  (Thales Emanoel Ferreira De Luna )</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>6610006219</v>
+        <v>6610002444</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
@@ -12139,11 +12139,11 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Jacielton De Lima</t>
+          <t>Gabriel Da Silva Nogueira</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>6610006624</v>
+        <v>6610002119</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
@@ -12160,11 +12160,11 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Daniele Leite Ferreira</t>
+          <t>Jhennyf Beatriz Da Silva Diniz</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>6610015419</v>
+        <v>6610015677</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
@@ -12181,11 +12181,11 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Nelson Barros De Castro Júnior</t>
+          <t>Deyvid Edson Da Silva</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>6610005899</v>
+        <v>6610001766</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
@@ -12202,11 +12202,11 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Raiana Maria Da Silva Vital</t>
+          <t>Andrielly Severina Lino Da Silva</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>6610020597</v>
+        <v>6610007648</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
@@ -12223,11 +12223,11 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Sayonara Ellen Silva De Lima</t>
+          <t>Samara Da Silva Santos</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>6610013326</v>
+        <v>6610004674</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -12244,11 +12244,11 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Cauã Tiago Da Silva Carneiro</t>
+          <t>Maryanny Nykoly Pereira Valentim</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>6610011874</v>
+        <v>6610011751</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
@@ -12265,11 +12265,11 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Maria Luiza Gonçalves Lourenço</t>
+          <t>Gabrielly Beatriz Ferreira Da Costa</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>6610012761</v>
+        <v>6610019007</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
@@ -12286,11 +12286,11 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Evellyn Vitória Genuino Nascimento Da Silva</t>
+          <t>Marcio Wilvson De Sales Souza</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>6610001026</v>
+        <v>6610006219</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
@@ -12307,11 +12307,11 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Gabryele Dos Santos</t>
+          <t>Jacielton De Lima</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>6610006514</v>
+        <v>6610006624</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
@@ -12328,11 +12328,11 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Maria Helenna Silva Siqueira</t>
+          <t>Daniele Leite Ferreira</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>6610012287</v>
+        <v>6610015419</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
@@ -12349,11 +12349,11 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Ana Beatriz Neves Laranjeira</t>
+          <t>Nelson Barros De Castro Júnior</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>6610013425</v>
+        <v>6610005899</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
@@ -12370,11 +12370,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Adson Manoel Nascimento Dos Santos</t>
+          <t>Raiana Maria Da Silva Vital</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>6610007495</v>
+        <v>6610020597</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
@@ -12391,11 +12391,11 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Wanessa Luiza Pereira Da Silva</t>
+          <t>Sayonara Ellen Silva De Lima</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>6610000106</v>
+        <v>6610013326</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
@@ -12412,11 +12412,11 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>João Vitor Barbosa De Souza Silva</t>
+          <t>Cauã Tiago Da Silva Carneiro</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>6610008791</v>
+        <v>6610011874</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
@@ -12433,11 +12433,11 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>André Felipe Pereira De Menezes</t>
+          <t>Maria Luiza Gonçalves Lourenço</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>6610003876</v>
+        <v>6610012761</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
@@ -12454,11 +12454,11 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Joana Valentim Dos Santos</t>
+          <t>Evellyn Vitória Genuino Nascimento Da Silva</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>6610019178</v>
+        <v>6610001026</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
@@ -12475,11 +12475,11 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Crystyan De Oliveira Silva</t>
+          <t>Gabryele Dos Santos</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>6610010250</v>
+        <v>6610006514</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
@@ -12496,11 +12496,11 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Ryan David Constantino Da Silva</t>
+          <t>Maria Helenna Silva Siqueira</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>6610013100</v>
+        <v>6610012287</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
@@ -12517,11 +12517,11 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tomás Paes Sousa</t>
+          <t>Ana Beatriz Neves Laranjeira</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>6610017147</v>
+        <v>6610013425</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
@@ -12538,11 +12538,11 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Rafael De Barros Lira Silva</t>
+          <t>Adson Manoel Nascimento Dos Santos</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>6610006039</v>
+        <v>6610007495</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
@@ -12559,11 +12559,11 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Thauany Cavalcanti De Andrade</t>
+          <t>Wanessa Luiza Pereira Da Silva</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>6610011285</v>
+        <v>6610000106</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
@@ -12580,11 +12580,11 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Julianny Santana Da Silva</t>
+          <t>João Vitor Barbosa De Souza Silva</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>6610009447</v>
+        <v>6610008791</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
@@ -12601,11 +12601,11 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Ana Isa Batista Da Silva</t>
+          <t>André Felipe Pereira De Menezes</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>6610015644</v>
+        <v>6610003876</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Ismael Batista Da Silva</t>
+          <t>Joana Valentim Dos Santos</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>6610008805</v>
+        <v>6610019178</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
@@ -12643,11 +12643,11 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Monaliza Beatriz Vieira De Souza</t>
+          <t>Crystyan De Oliveira Silva</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>6610009681</v>
+        <v>6610010250</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
@@ -12664,11 +12664,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Maria Eduarda De Araujo Alves</t>
+          <t>Ryan David Constantino Da Silva</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>6610010915</v>
+        <v>6610013100</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
@@ -12685,11 +12685,11 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Guimarães E Silva</t>
+          <t>Tomás Paes Sousa</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>6610014906</v>
+        <v>6610017147</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
@@ -12706,11 +12706,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Ana Clara Do Nascimento Cruz  (Ana Clara )</t>
+          <t>Rafael De Barros Lira Silva</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>6610017753</v>
+        <v>6610006039</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
@@ -12727,11 +12727,11 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Natael Alexandre Da Silva</t>
+          <t>Thauany Cavalcanti De Andrade</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>6610010869</v>
+        <v>6610011285</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
@@ -12748,11 +12748,11 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Mikaelly Freire Da Silva</t>
+          <t>Julianny Santana Da Silva</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>6610002139</v>
+        <v>6610009447</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
@@ -12769,11 +12769,11 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Silvia Gabrielly Nunes Melo</t>
+          <t>Ana Isa Batista Da Silva</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>6610020170</v>
+        <v>6610015644</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
@@ -12790,11 +12790,11 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Kayra Gabryele Tomaz Rodrigues</t>
+          <t>Ismael Batista Da Silva</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>6610004167</v>
+        <v>6610008805</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
@@ -12811,11 +12811,11 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Kaio David Ramos Da Silva</t>
+          <t>Monaliza Beatriz Vieira De Souza</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>6610005927</v>
+        <v>6610009681</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
@@ -12832,11 +12832,11 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Laura Fabiane De Almeida França</t>
+          <t>Maria Eduarda De Araujo Alves</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>6610015937</v>
+        <v>6610010915</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
@@ -12853,11 +12853,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Lilian Gabrielly Araújo Da Silva (Lilian Gabrielly)</t>
+          <t>Lucas Gabriel Guimarães E Silva</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>6610018243</v>
+        <v>6610014906</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
@@ -12874,11 +12874,11 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Daniel Teles Da Silva</t>
+          <t>Ana Clara Do Nascimento Cruz  (Ana Clara )</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>6610006366</v>
+        <v>6610017753</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
@@ -12895,11 +12895,11 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Evelen Da Silva Soares</t>
+          <t>Natael Alexandre Da Silva</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>6610015533</v>
+        <v>6610010869</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
@@ -12916,11 +12916,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Aryella Letícia Silva De Santana</t>
+          <t>Mikaelly Freire Da Silva</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>6610014381</v>
+        <v>6610002139</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
@@ -12937,11 +12937,11 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Jennifer Dominic Farias Da Silva</t>
+          <t>Eduarda Sousa Reis</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>6610020660</v>
+        <v>6610013615</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
@@ -12958,11 +12958,11 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Maria Clara Santiago Santos</t>
+          <t>Silvia Gabrielly Nunes Melo</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>6610013337</v>
+        <v>6610020170</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
@@ -12979,11 +12979,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Luís Guilherme Bezerra De Albuquerque</t>
+          <t>Kayra Gabryele Tomaz Rodrigues</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>6610019918</v>
+        <v>6610004167</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
@@ -13000,11 +13000,11 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Ruthe Dos Santos Andrade</t>
+          <t>Kaio David Ramos Da Silva</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>6610011619</v>
+        <v>6610005927</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
@@ -13021,11 +13021,11 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Milena Maria Alves De Vasconcelos</t>
+          <t>Laura Fabiane De Almeida França</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>6610007296</v>
+        <v>6610015937</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
@@ -13042,11 +13042,11 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Eduardo Da Silva Lino</t>
+          <t>Lilian Gabrielly Araújo Da Silva (Lilian Gabrielly)</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>6610012388</v>
+        <v>6610018243</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
@@ -13063,11 +13063,11 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Alexandra Sofia Da Silva</t>
+          <t>Daniel Teles Da Silva</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>6610010084</v>
+        <v>6610006366</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
@@ -13084,11 +13084,11 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Lara Sofia Silva Dos Santos</t>
+          <t>Evelen Da Silva Soares</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>6610014910</v>
+        <v>6610015533</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
@@ -13105,11 +13105,11 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Wallison Matheus Oliveira Brito</t>
+          <t>Aryella Letícia Silva De Santana</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>6610019086</v>
+        <v>6610014381</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
@@ -13126,11 +13126,11 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Anayanne Lopes De Lima</t>
+          <t>Jennifer Dominic Farias Da Silva</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>6610004704</v>
+        <v>6610020660</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
@@ -13147,11 +13147,11 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Wellen Barbosa Gomes</t>
+          <t>Maria Clara Santiago Santos</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>6610014716</v>
+        <v>6610013337</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
@@ -13168,11 +13168,11 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Jéssica Emanuelly  Souza Da Silva</t>
+          <t>Luís Guilherme Bezerra De Albuquerque</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>6610013985</v>
+        <v>6610019918</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
@@ -13189,11 +13189,11 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Heloisa Souza Barbosa Do Espirito Santo</t>
+          <t>Ruthe Dos Santos Andrade</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>6610003540</v>
+        <v>6610011619</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
@@ -13210,11 +13210,11 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Alana Beatriz Da Cruz Santos</t>
+          <t>Milena Maria Alves De Vasconcelos</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>6610007738</v>
+        <v>6610007296</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
@@ -13231,11 +13231,11 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Jhon Gabriel De Lima Sousa</t>
+          <t>Eduardo Da Silva Lino</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>6610008719</v>
+        <v>6610012388</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
@@ -13252,11 +13252,11 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Maria Bruna Leite Simplicio</t>
+          <t>Alexandra Sofia Da Silva</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>6610017756</v>
+        <v>6610010084</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
@@ -13273,11 +13273,11 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Maria Mirelly De Almeida Silva</t>
+          <t>Lara Sofia Silva Dos Santos</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>6610004697</v>
+        <v>6610014910</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
@@ -13294,11 +13294,11 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Jamyle Ferreira De Melo Silva</t>
+          <t>Wallison Matheus Oliveira Brito</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>6610003448</v>
+        <v>6610019086</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
@@ -13315,11 +13315,11 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Flávia Camila De Lima Silva</t>
+          <t>Anayanne Lopes De Lima</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>6610002782</v>
+        <v>6610004704</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
@@ -13336,11 +13336,11 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Jamilly Taciara Da Silva Soares</t>
+          <t>Wellen Barbosa Gomes</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>6610010114</v>
+        <v>6610014716</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
@@ -13357,11 +13357,11 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Anna Klara Da  Silva Arruda</t>
+          <t>Jéssica Emanuelly  Souza Da Silva</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>6610008621</v>
+        <v>6610013985</v>
       </c>
       <c r="C616" t="inlineStr">
         <is>
@@ -13378,11 +13378,11 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Emilly Nauanda Dos Santos  (Emilly )</t>
+          <t>Heloisa Souza Barbosa Do Espirito Santo</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>6610006065</v>
+        <v>6610003540</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
@@ -13399,11 +13399,11 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Pietro Ramon Moura De Almeida</t>
+          <t>Alana Beatriz Da Cruz Santos</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>6610018591</v>
+        <v>6610007738</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
@@ -13420,11 +13420,11 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Luys Eduardo Brasil E Silva</t>
+          <t>Jhon Gabriel De Lima Sousa</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>6610013752</v>
+        <v>6610008719</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
@@ -13441,11 +13441,11 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Jéssica Raíssa Martins Da Silva</t>
+          <t>Maria Bruna Leite Simplicio</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>6610004108</v>
+        <v>6610017756</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
@@ -13462,11 +13462,11 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Lucas Ricardo Araújo Da Costa</t>
+          <t>Maria Mirelly De Almeida Silva</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>6610015047</v>
+        <v>6610004697</v>
       </c>
       <c r="C621" t="inlineStr">
         <is>
@@ -13483,11 +13483,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Lucas Antonio Francisco Da Silva</t>
+          <t>Jamyle Ferreira De Melo Silva</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>6610016130</v>
+        <v>6610003448</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
@@ -13504,11 +13504,11 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Ivson Ryan Monteiro Bezerra</t>
+          <t>Flávia Camila De Lima Silva</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>6610009257</v>
+        <v>6610002782</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
@@ -13525,11 +13525,11 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Pamella Fernanda Gonçalves Melo  De Queiroz</t>
+          <t>Jamilly Taciara Da Silva Soares</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>6610007368</v>
+        <v>6610010114</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
@@ -13546,11 +13546,11 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Aryane Samara Silva Da Fonseca (Aryane)</t>
+          <t>Anna Klara Da  Silva Arruda</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>6610015048</v>
+        <v>6610008621</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
@@ -13567,11 +13567,11 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Iasmin Carvalho Vieira Costa</t>
+          <t>Emilly Nauanda Dos Santos  (Emilly )</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>6610013841</v>
+        <v>6610006065</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
@@ -13588,11 +13588,11 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Ítaly Kauane De Lima Lins</t>
+          <t>Pietro Ramon Moura De Almeida</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>6610019809</v>
+        <v>6610018591</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
@@ -13609,11 +13609,11 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Tawane Marina Alves Da Silva</t>
+          <t>Luys Eduardo Brasil E Silva</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>6610006182</v>
+        <v>6610013752</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
@@ -13630,11 +13630,11 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Maycon Monteiro Freire Cabral</t>
+          <t>Jéssica Raíssa Martins Da Silva</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>6610004528</v>
+        <v>6610004108</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
@@ -13651,11 +13651,11 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Beatriz Vitória Alves De Souza</t>
+          <t>Lucas Ricardo Araújo Da Costa</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>6610003730</v>
+        <v>6610015047</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
@@ -13672,11 +13672,11 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Ana Carolina Xavier Alves Mariano</t>
+          <t>Lucas Antonio Francisco Da Silva</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>6610012284</v>
+        <v>6610016130</v>
       </c>
       <c r="C631" t="inlineStr">
         <is>
@@ -13693,11 +13693,11 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Andrey De Almeida Ferreira</t>
+          <t>Ivson Ryan Monteiro Bezerra</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>6610010790</v>
+        <v>6610009257</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
@@ -13714,11 +13714,11 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Ana Luiza Soares Coelho Da Cruz</t>
+          <t>Pamella Fernanda Gonçalves Melo  De Queiroz</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>6610019210</v>
+        <v>6610007368</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
@@ -13735,11 +13735,11 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Iarlla Mayanny Leite</t>
+          <t>Aryane Samara Silva Da Fonseca (Aryane)</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>6610006823</v>
+        <v>6610015048</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
@@ -13756,11 +13756,11 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Devid Antônio Da Silva Raimundo</t>
+          <t>Iasmin Carvalho Vieira Costa</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>6610006400</v>
+        <v>6610013841</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
@@ -13777,11 +13777,11 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Samia De Lima Candido</t>
+          <t>Ítaly Kauane De Lima Lins</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>6610008503</v>
+        <v>6610019809</v>
       </c>
       <c r="C636" t="inlineStr">
         <is>
@@ -13798,11 +13798,11 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Edrielly Dáffny Ramos Cerqueira</t>
+          <t>Tawane Marina Alves Da Silva</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>6610008876</v>
+        <v>6610006182</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
@@ -13819,11 +13819,11 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Carlos Vinícius De Oliveira Santos</t>
+          <t>Maycon Monteiro Freire Cabral</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>6610008855</v>
+        <v>6610004528</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
@@ -13840,11 +13840,11 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Weslley Gabriel José Cavalcante</t>
+          <t>Beatriz Vitória Alves De Souza</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>6610010448</v>
+        <v>6610003730</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
@@ -13856,6 +13856,195 @@
       </c>
       <c r="E639" t="n">
         <v>638</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Ana Carolina Xavier Alves Mariano</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>6610012284</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>INTERCÂMBIO INTERNACIONAL NO CHILE - ESPANHOL</t>
+        </is>
+      </c>
+      <c r="D640" t="n">
+        <v>6</v>
+      </c>
+      <c r="E640" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Andrey De Almeida Ferreira</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>6610010790</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>INTERCÂMBIO INTERNACIONAL NO CHILE - ESPANHOL</t>
+        </is>
+      </c>
+      <c r="D641" t="n">
+        <v>6</v>
+      </c>
+      <c r="E641" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Ana Luiza Soares Coelho Da Cruz</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>6610019210</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>INTERCÂMBIO INTERNACIONAL NO CHILE - ESPANHOL</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>6</v>
+      </c>
+      <c r="E642" t="n">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Iarlla Mayanny Leite</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>6610006823</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>INTERCÂMBIO INTERNACIONAL NO CHILE - ESPANHOL</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>6</v>
+      </c>
+      <c r="E643" t="n">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Devid Antônio Da Silva Raimundo</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>6610006400</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>INTERCÂMBIO INTERNACIONAL NO CHILE - ESPANHOL</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>6</v>
+      </c>
+      <c r="E644" t="n">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Samia De Lima Candido</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>6610008503</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>INTERCÂMBIO INTERNACIONAL NO CHILE - ESPANHOL</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>6</v>
+      </c>
+      <c r="E645" t="n">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Edrielly Dáffny Ramos Cerqueira</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>6610008876</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>INTERCÂMBIO INTERNACIONAL NO CHILE - ESPANHOL</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>6</v>
+      </c>
+      <c r="E646" t="n">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Carlos Vinícius De Oliveira Santos</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>6610008855</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>INTERCÂMBIO INTERNACIONAL NO CHILE - ESPANHOL</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>6</v>
+      </c>
+      <c r="E647" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Weslley Gabriel José Cavalcante</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>6610010448</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>INTERCÂMBIO INTERNACIONAL NO CHILE - ESPANHOL</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>6</v>
+      </c>
+      <c r="E648" t="n">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
